--- a/Excel/ExcelDAI-Libro2.xlsx
+++ b/Excel/ExcelDAI-Libro2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afranzonv\OneDrive - INSTITUTO TECNOLOGICO AUTONOMO DE MEXICO\otoño0318-clases\DAI\Clase1106\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrodriguort\Desktop\DLL\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Selección Simple" sheetId="10" r:id="rId1"/>
@@ -1166,7 +1166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1631,19 +1631,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1662,7 +1649,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1871,7 +1858,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="13" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="13" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="13" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="12" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="35" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="13" applyFill="1" applyBorder="1"/>
@@ -1880,7 +1866,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="14" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="13" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="13" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5031,7 +5016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5316,11 +5301,11 @@
       <c r="D22" s="104"/>
       <c r="E22" s="104"/>
       <c r="F22" s="104"/>
-      <c r="G22" s="142" t="s">
+      <c r="G22" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="143"/>
-      <c r="I22" s="144"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="142"/>
     </row>
     <row r="23" spans="1:14" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A23" s="104"/>
@@ -9653,12 +9638,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA40"/>
+  <dimension ref="A1:AA368"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.140625" customWidth="1"/>
     <col min="15" max="15" width="16.5703125" customWidth="1"/>
     <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -10147,11 +10137,11 @@
       <c r="O17" s="122"/>
       <c r="P17" s="122"/>
       <c r="Q17" s="122"/>
-      <c r="R17" s="145" t="s">
+      <c r="R17" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="S17" s="146"/>
-      <c r="T17" s="147"/>
+      <c r="S17" s="144"/>
+      <c r="T17" s="145"/>
       <c r="U17" s="122"/>
       <c r="V17" s="122"/>
       <c r="W17" s="122"/>
@@ -10225,29 +10215,64 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="122"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
+      <c r="B19" s="122">
+        <v>1</v>
+      </c>
+      <c r="C19" s="122" t="str">
+        <f ca="1">IF(RANDBETWEEN(0,1)=0,"hombre","mujer")</f>
+        <v>hombre</v>
+      </c>
+      <c r="D19" s="122" t="str">
+        <f ca="1">INDEX($Q$19:$Q$24,RANDBETWEEN(1,COUNTA($Q$19:$Q$24)),1)</f>
+        <v>trabajador</v>
+      </c>
+      <c r="E19" s="122">
+        <f ca="1">RANDBETWEEN(10,75)</f>
+        <v>70</v>
+      </c>
+      <c r="F19" s="129">
+        <f ca="1">RANDBETWEEN(20*100,100*100)/100</f>
+        <v>20.45</v>
+      </c>
+      <c r="G19" s="129">
+        <f ca="1">RANDBETWEEN(1*100,2*100)/100</f>
+        <v>1.24</v>
+      </c>
       <c r="H19" s="129"/>
       <c r="I19" s="129"/>
       <c r="J19" s="130" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="131"/>
-      <c r="L19" s="132"/>
-      <c r="M19" s="132"/>
-      <c r="N19" s="133"/>
-      <c r="O19" s="134"/>
+      <c r="K19" s="131">
+        <f ca="1">AVERAGEIF($C$19:$C$368,"mujer",E$19:E$368)</f>
+        <v>43.688172043010752</v>
+      </c>
+      <c r="L19" s="131">
+        <f ca="1">AVERAGEIF($C$19:$C$368,"mujer",F$19:F$368)</f>
+        <v>62.059408602150512</v>
+      </c>
+      <c r="M19" s="131">
+        <f ca="1">AVERAGEIF($C$19:$C$368,"mujer",G$19:G$368)</f>
+        <v>1.530376344086021</v>
+      </c>
+      <c r="N19" s="132">
+        <f ca="1">COUNTIF(C19:C368,J19)</f>
+        <v>186</v>
+      </c>
+      <c r="O19" s="133">
+        <f ca="1">N19/$N$21</f>
+        <v>0.53142857142857147</v>
+      </c>
       <c r="P19" s="122"/>
       <c r="Q19" s="130" t="s">
         <v>113</v>
       </c>
-      <c r="R19" s="133"/>
-      <c r="S19" s="133"/>
-      <c r="T19" s="135"/>
+      <c r="R19" s="132">
+        <f ca="1">COUNTIF(C19:C368,conju)</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="132"/>
+      <c r="T19" s="134"/>
       <c r="U19" s="122"/>
       <c r="V19" s="122"/>
       <c r="W19" s="122"/>
@@ -10258,29 +10283,61 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="122"/>
-      <c r="B20" s="129"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
+      <c r="B20" s="129">
+        <v>2</v>
+      </c>
+      <c r="C20" s="122" t="str">
+        <f t="shared" ref="C20:C83" ca="1" si="0">IF(RANDBETWEEN(0,1)=0,"hombre","mujer")</f>
+        <v>mujer</v>
+      </c>
+      <c r="D20" s="122" t="str">
+        <f t="shared" ref="D20:D83" ca="1" si="1">INDEX($Q$19:$Q$24,RANDBETWEEN(1,COUNTA($Q$19:$Q$24)),1)</f>
+        <v>funcionario</v>
+      </c>
+      <c r="E20" s="122">
+        <f t="shared" ref="E20:E83" ca="1" si="2">RANDBETWEEN(10,75)</f>
+        <v>39</v>
+      </c>
+      <c r="F20" s="129">
+        <f ca="1">RANDBETWEEN(20*100,100*100)/100</f>
+        <v>96.25</v>
+      </c>
+      <c r="G20" s="129">
+        <f t="shared" ref="G20:G83" ca="1" si="3">RANDBETWEEN(1*100,2*100)/100</f>
+        <v>2</v>
+      </c>
       <c r="H20" s="129"/>
       <c r="I20" s="129"/>
       <c r="J20" s="130" t="s">
         <v>111</v>
       </c>
-      <c r="K20" s="132"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="133"/>
-      <c r="O20" s="134"/>
+      <c r="K20" s="131">
+        <f ca="1">AVERAGEIF($C$19:$C$368,"hombre",E$19:E$368)</f>
+        <v>41.664634146341463</v>
+      </c>
+      <c r="L20" s="131">
+        <f t="shared" ref="L20:M20" ca="1" si="4">AVERAGEIF($C$19:$C$368,"hombre",F$19:F$368)</f>
+        <v>58.024634146341455</v>
+      </c>
+      <c r="M20" s="131">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.5017682926829263</v>
+      </c>
+      <c r="N20" s="132">
+        <f ca="1">COUNTIF(C20:C369,J20)</f>
+        <v>163</v>
+      </c>
+      <c r="O20" s="133">
+        <f t="shared" ref="O20:O21" ca="1" si="5">N20/$N$21</f>
+        <v>0.46571428571428569</v>
+      </c>
       <c r="P20" s="122"/>
       <c r="Q20" s="130" t="s">
         <v>114</v>
       </c>
-      <c r="R20" s="133"/>
-      <c r="S20" s="133"/>
-      <c r="T20" s="135"/>
+      <c r="R20" s="132"/>
+      <c r="S20" s="132"/>
+      <c r="T20" s="134"/>
       <c r="U20" s="122"/>
       <c r="V20" s="122"/>
       <c r="W20" s="122"/>
@@ -10291,29 +10348,61 @@
     </row>
     <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="122"/>
-      <c r="B21" s="129"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
+      <c r="B21" s="122">
+        <v>3</v>
+      </c>
+      <c r="C21" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>hombre</v>
+      </c>
+      <c r="D21" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>operador</v>
+      </c>
+      <c r="E21" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="F21" s="129">
+        <f t="shared" ref="F21:F84" ca="1" si="6">RANDBETWEEN(20*100,100*100)/100</f>
+        <v>91.34</v>
+      </c>
+      <c r="G21" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.67</v>
+      </c>
       <c r="H21" s="129"/>
       <c r="I21" s="129"/>
-      <c r="J21" s="136" t="s">
+      <c r="J21" s="135" t="s">
         <v>115</v>
       </c>
-      <c r="K21" s="137"/>
-      <c r="L21" s="137"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="138"/>
-      <c r="O21" s="139"/>
+      <c r="K21" s="136">
+        <f ca="1">AVERAGE(E19:E368)</f>
+        <v>42.74</v>
+      </c>
+      <c r="L21" s="136">
+        <f t="shared" ref="L21:M21" ca="1" si="7">AVERAGE(F19:F368)</f>
+        <v>60.16882857142857</v>
+      </c>
+      <c r="M21" s="136">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.5169714285714286</v>
+      </c>
+      <c r="N21" s="137">
+        <f ca="1">COUNTA(C19:C368)</f>
+        <v>350</v>
+      </c>
+      <c r="O21" s="133">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
       <c r="P21" s="122"/>
       <c r="Q21" s="130" t="s">
         <v>116</v>
       </c>
-      <c r="R21" s="133"/>
-      <c r="S21" s="133"/>
-      <c r="T21" s="135"/>
+      <c r="R21" s="132"/>
+      <c r="S21" s="132"/>
+      <c r="T21" s="134"/>
       <c r="U21" s="122"/>
       <c r="V21" s="122"/>
       <c r="W21" s="122"/>
@@ -10324,12 +10413,29 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="122"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
+      <c r="B22" s="129">
+        <v>4</v>
+      </c>
+      <c r="C22" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D22" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E22" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="F22" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>72.489999999999995</v>
+      </c>
+      <c r="G22" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1499999999999999</v>
+      </c>
       <c r="H22" s="122"/>
       <c r="I22" s="122"/>
       <c r="J22" s="122"/>
@@ -10342,9 +10448,9 @@
       <c r="Q22" s="130" t="s">
         <v>117</v>
       </c>
-      <c r="R22" s="133"/>
-      <c r="S22" s="133"/>
-      <c r="T22" s="135"/>
+      <c r="R22" s="132"/>
+      <c r="S22" s="132"/>
+      <c r="T22" s="134"/>
       <c r="U22" s="122"/>
       <c r="V22" s="122"/>
       <c r="W22" s="122"/>
@@ -10355,12 +10461,29 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="122"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122"/>
+      <c r="B23" s="122">
+        <v>5</v>
+      </c>
+      <c r="C23" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D23" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E23" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="F23" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>30.96</v>
+      </c>
+      <c r="G23" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.58</v>
+      </c>
       <c r="H23" s="122"/>
       <c r="I23" s="122"/>
       <c r="J23" s="122"/>
@@ -10373,9 +10496,9 @@
       <c r="Q23" s="130" t="s">
         <v>118</v>
       </c>
-      <c r="R23" s="133"/>
-      <c r="S23" s="133"/>
-      <c r="T23" s="135"/>
+      <c r="R23" s="132"/>
+      <c r="S23" s="132"/>
+      <c r="T23" s="134"/>
       <c r="U23" s="122"/>
       <c r="V23" s="122"/>
       <c r="W23" s="122"/>
@@ -10386,12 +10509,29 @@
     </row>
     <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="122"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
+      <c r="B24" s="129">
+        <v>6</v>
+      </c>
+      <c r="C24" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D24" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>suma</v>
+      </c>
+      <c r="E24" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F24" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>42.39</v>
+      </c>
+      <c r="G24" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.82</v>
+      </c>
       <c r="H24" s="122"/>
       <c r="I24" s="122"/>
       <c r="J24" s="122"/>
@@ -10401,12 +10541,12 @@
       <c r="N24" s="122"/>
       <c r="O24" s="122"/>
       <c r="P24" s="122"/>
-      <c r="Q24" s="136" t="s">
+      <c r="Q24" s="135" t="s">
         <v>112</v>
       </c>
-      <c r="R24" s="140"/>
-      <c r="S24" s="141"/>
-      <c r="T24" s="135"/>
+      <c r="R24" s="138"/>
+      <c r="S24" s="139"/>
+      <c r="T24" s="134"/>
       <c r="U24" s="122"/>
       <c r="V24" s="122"/>
       <c r="W24" s="122"/>
@@ -10417,12 +10557,29 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="122"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
+      <c r="B25" s="122">
+        <v>7</v>
+      </c>
+      <c r="C25" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D25" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>operador</v>
+      </c>
+      <c r="E25" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="F25" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>63.33</v>
+      </c>
+      <c r="G25" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.18</v>
+      </c>
       <c r="H25" s="122"/>
       <c r="I25" s="122"/>
       <c r="J25" s="122"/>
@@ -10446,12 +10603,29 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="122"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="122"/>
+      <c r="B26" s="129">
+        <v>8</v>
+      </c>
+      <c r="C26" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D26" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E26" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="F26" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>57.66</v>
+      </c>
+      <c r="G26" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.65</v>
+      </c>
       <c r="H26" s="122"/>
       <c r="I26" s="122"/>
       <c r="J26" s="122"/>
@@ -10475,12 +10649,29 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="122"/>
-      <c r="B27" s="122"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122"/>
+      <c r="B27" s="122">
+        <v>9</v>
+      </c>
+      <c r="C27" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>hombre</v>
+      </c>
+      <c r="D27" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E27" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="F27" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="G27" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.98</v>
+      </c>
       <c r="H27" s="122"/>
       <c r="I27" s="122"/>
       <c r="J27" s="122"/>
@@ -10504,12 +10695,29 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="122"/>
-      <c r="B28" s="122"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="122"/>
+      <c r="B28" s="129">
+        <v>10</v>
+      </c>
+      <c r="C28" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D28" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>operador</v>
+      </c>
+      <c r="E28" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="F28" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>40.020000000000003</v>
+      </c>
+      <c r="G28" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.39</v>
+      </c>
       <c r="H28" s="122"/>
       <c r="I28" s="122"/>
       <c r="J28" s="122"/>
@@ -10533,12 +10741,29 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="122"/>
-      <c r="B29" s="122"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="122"/>
+      <c r="B29" s="122">
+        <v>11</v>
+      </c>
+      <c r="C29" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D29" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E29" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="F29" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>73.33</v>
+      </c>
+      <c r="G29" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.05</v>
+      </c>
       <c r="H29" s="122"/>
       <c r="I29" s="122"/>
       <c r="J29" s="122"/>
@@ -10562,12 +10787,29 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="122"/>
-      <c r="B30" s="122"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="122"/>
+      <c r="B30" s="129">
+        <v>12</v>
+      </c>
+      <c r="C30" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D30" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E30" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="F30" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>90.24</v>
+      </c>
+      <c r="G30" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.8</v>
+      </c>
       <c r="H30" s="122"/>
       <c r="I30" s="122"/>
       <c r="J30" s="122"/>
@@ -10591,12 +10833,29 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="122"/>
-      <c r="B31" s="122"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122"/>
+      <c r="B31" s="122">
+        <v>13</v>
+      </c>
+      <c r="C31" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>hombre</v>
+      </c>
+      <c r="D31" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E31" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F31" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>50.3</v>
+      </c>
+      <c r="G31" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.89</v>
+      </c>
       <c r="H31" s="122"/>
       <c r="I31" s="122"/>
       <c r="J31" s="122"/>
@@ -10620,12 +10879,29 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="122"/>
-      <c r="B32" s="122"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="122"/>
+      <c r="B32" s="129">
+        <v>14</v>
+      </c>
+      <c r="C32" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D32" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E32" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="F32" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>75.760000000000005</v>
+      </c>
+      <c r="G32" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.99</v>
+      </c>
       <c r="H32" s="122"/>
       <c r="I32" s="122"/>
       <c r="J32" s="122"/>
@@ -10649,12 +10925,29 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="122"/>
-      <c r="B33" s="122"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="122"/>
+      <c r="B33" s="122">
+        <v>15</v>
+      </c>
+      <c r="C33" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D33" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E33" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="F33" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>70.22</v>
+      </c>
+      <c r="G33" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.22</v>
+      </c>
       <c r="H33" s="122"/>
       <c r="I33" s="122"/>
       <c r="J33" s="122"/>
@@ -10678,12 +10971,29 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="122"/>
-      <c r="B34" s="122"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122"/>
+      <c r="B34" s="129">
+        <v>16</v>
+      </c>
+      <c r="C34" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>hombre</v>
+      </c>
+      <c r="D34" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E34" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="F34" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.880000000000003</v>
+      </c>
+      <c r="G34" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.06</v>
+      </c>
       <c r="H34" s="122"/>
       <c r="I34" s="122"/>
       <c r="J34" s="122"/>
@@ -10707,12 +11017,29 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="122"/>
-      <c r="B35" s="122"/>
-      <c r="C35" s="122"/>
-      <c r="D35" s="122"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="122"/>
-      <c r="G35" s="122"/>
+      <c r="B35" s="122">
+        <v>17</v>
+      </c>
+      <c r="C35" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>hombre</v>
+      </c>
+      <c r="D35" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>operador</v>
+      </c>
+      <c r="E35" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="F35" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>29.3</v>
+      </c>
+      <c r="G35" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.4</v>
+      </c>
       <c r="H35" s="122"/>
       <c r="I35" s="122"/>
       <c r="J35" s="122"/>
@@ -10736,12 +11063,29 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="122"/>
-      <c r="B36" s="122"/>
-      <c r="C36" s="122"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="122"/>
-      <c r="F36" s="122"/>
-      <c r="G36" s="122"/>
+      <c r="B36" s="129">
+        <v>18</v>
+      </c>
+      <c r="C36" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D36" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E36" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="F36" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>59.38</v>
+      </c>
+      <c r="G36" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.87</v>
+      </c>
       <c r="H36" s="122"/>
       <c r="I36" s="122"/>
       <c r="J36" s="122"/>
@@ -10765,12 +11109,29 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="122"/>
-      <c r="B37" s="122"/>
-      <c r="C37" s="122"/>
-      <c r="D37" s="122"/>
-      <c r="E37" s="122"/>
-      <c r="F37" s="122"/>
-      <c r="G37" s="122"/>
+      <c r="B37" s="122">
+        <v>19</v>
+      </c>
+      <c r="C37" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>hombre</v>
+      </c>
+      <c r="D37" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E37" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="F37" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>20.68</v>
+      </c>
+      <c r="G37" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.8</v>
+      </c>
       <c r="H37" s="122"/>
       <c r="I37" s="122"/>
       <c r="J37" s="122"/>
@@ -10794,12 +11155,29 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="122"/>
-      <c r="B38" s="122"/>
-      <c r="C38" s="122"/>
-      <c r="D38" s="122"/>
-      <c r="E38" s="122"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="122"/>
+      <c r="B38" s="129">
+        <v>20</v>
+      </c>
+      <c r="C38" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>hombre</v>
+      </c>
+      <c r="D38" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E38" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="F38" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>56.3</v>
+      </c>
+      <c r="G38" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.19</v>
+      </c>
       <c r="H38" s="122"/>
       <c r="I38" s="122"/>
       <c r="J38" s="122"/>
@@ -10823,12 +11201,29 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="122"/>
-      <c r="B39" s="122"/>
-      <c r="C39" s="122"/>
-      <c r="D39" s="122"/>
-      <c r="E39" s="122"/>
-      <c r="F39" s="122"/>
-      <c r="G39" s="122"/>
+      <c r="B39" s="122">
+        <v>21</v>
+      </c>
+      <c r="C39" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D39" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E39" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="F39" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>81.75</v>
+      </c>
+      <c r="G39" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.42</v>
+      </c>
       <c r="H39" s="129"/>
       <c r="I39" s="129"/>
       <c r="J39" s="129"/>
@@ -10852,12 +11247,29 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="122"/>
-      <c r="B40" s="122"/>
-      <c r="C40" s="122"/>
-      <c r="D40" s="122"/>
-      <c r="E40" s="122"/>
-      <c r="F40" s="122"/>
-      <c r="G40" s="122"/>
+      <c r="B40" s="129">
+        <v>22</v>
+      </c>
+      <c r="C40" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>hombre</v>
+      </c>
+      <c r="D40" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>operador</v>
+      </c>
+      <c r="E40" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="F40" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>20.190000000000001</v>
+      </c>
+      <c r="G40" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.54</v>
+      </c>
       <c r="H40" s="129"/>
       <c r="I40" s="129"/>
       <c r="J40" s="129"/>
@@ -10878,6 +11290,8206 @@
       <c r="Y40" s="129"/>
       <c r="Z40" s="129"/>
       <c r="AA40" s="129"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B41" s="122">
+        <v>23</v>
+      </c>
+      <c r="C41" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>hombre</v>
+      </c>
+      <c r="D41" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>operador</v>
+      </c>
+      <c r="E41" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="F41" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>78.12</v>
+      </c>
+      <c r="G41" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B42" s="129">
+        <v>24</v>
+      </c>
+      <c r="C42" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>hombre</v>
+      </c>
+      <c r="D42" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E42" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="F42" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>70.900000000000006</v>
+      </c>
+      <c r="G42" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B43" s="122">
+        <v>25</v>
+      </c>
+      <c r="C43" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D43" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E43" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="F43" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>21.99</v>
+      </c>
+      <c r="G43" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B44" s="129">
+        <v>26</v>
+      </c>
+      <c r="C44" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D44" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E44" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="F44" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>98.64</v>
+      </c>
+      <c r="G44" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B45" s="122">
+        <v>27</v>
+      </c>
+      <c r="C45" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>hombre</v>
+      </c>
+      <c r="D45" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>suma</v>
+      </c>
+      <c r="E45" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="F45" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>87.8</v>
+      </c>
+      <c r="G45" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B46" s="129">
+        <v>28</v>
+      </c>
+      <c r="C46" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>hombre</v>
+      </c>
+      <c r="D46" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>operador</v>
+      </c>
+      <c r="E46" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="F46" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>64.72</v>
+      </c>
+      <c r="G46" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B47" s="122">
+        <v>29</v>
+      </c>
+      <c r="C47" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D47" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>operador</v>
+      </c>
+      <c r="E47" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F47" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>51.97</v>
+      </c>
+      <c r="G47" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B48" s="129">
+        <v>30</v>
+      </c>
+      <c r="C48" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>hombre</v>
+      </c>
+      <c r="D48" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>suma</v>
+      </c>
+      <c r="E48" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="F48" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>95.11</v>
+      </c>
+      <c r="G48" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="122">
+        <v>31</v>
+      </c>
+      <c r="C49" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D49" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E49" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="F49" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>93.5</v>
+      </c>
+      <c r="G49" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="129">
+        <v>32</v>
+      </c>
+      <c r="C50" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>hombre</v>
+      </c>
+      <c r="D50" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E50" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F50" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>48.91</v>
+      </c>
+      <c r="G50" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="122">
+        <v>33</v>
+      </c>
+      <c r="C51" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D51" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E51" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="F51" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>78.86</v>
+      </c>
+      <c r="G51" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="129">
+        <v>34</v>
+      </c>
+      <c r="C52" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D52" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E52" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="F52" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>38.22</v>
+      </c>
+      <c r="G52" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="122">
+        <v>35</v>
+      </c>
+      <c r="C53" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D53" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E53" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="F53" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>90.58</v>
+      </c>
+      <c r="G53" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="129">
+        <v>36</v>
+      </c>
+      <c r="C54" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D54" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>operador</v>
+      </c>
+      <c r="E54" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="F54" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>56.55</v>
+      </c>
+      <c r="G54" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="122">
+        <v>37</v>
+      </c>
+      <c r="C55" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D55" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E55" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F55" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>45.65</v>
+      </c>
+      <c r="G55" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="129">
+        <v>38</v>
+      </c>
+      <c r="C56" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D56" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E56" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="F56" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>42.56</v>
+      </c>
+      <c r="G56" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="122">
+        <v>39</v>
+      </c>
+      <c r="C57" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>hombre</v>
+      </c>
+      <c r="D57" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>suma</v>
+      </c>
+      <c r="E57" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="F57" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>37.880000000000003</v>
+      </c>
+      <c r="G57" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="129">
+        <v>40</v>
+      </c>
+      <c r="C58" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>hombre</v>
+      </c>
+      <c r="D58" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E58" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="F58" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>98.7</v>
+      </c>
+      <c r="G58" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="122">
+        <v>41</v>
+      </c>
+      <c r="C59" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D59" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E59" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="F59" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="G59" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="129">
+        <v>42</v>
+      </c>
+      <c r="C60" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>hombre</v>
+      </c>
+      <c r="D60" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>suma</v>
+      </c>
+      <c r="E60" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="F60" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>56.73</v>
+      </c>
+      <c r="G60" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="122">
+        <v>43</v>
+      </c>
+      <c r="C61" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D61" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E61" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="F61" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>50.01</v>
+      </c>
+      <c r="G61" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="129">
+        <v>44</v>
+      </c>
+      <c r="C62" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D62" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E62" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="F62" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>31.5</v>
+      </c>
+      <c r="G62" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="122">
+        <v>45</v>
+      </c>
+      <c r="C63" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D63" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E63" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="F63" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>64.459999999999994</v>
+      </c>
+      <c r="G63" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="129">
+        <v>46</v>
+      </c>
+      <c r="C64" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D64" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>operador</v>
+      </c>
+      <c r="E64" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="F64" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>83.47</v>
+      </c>
+      <c r="G64" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="122">
+        <v>47</v>
+      </c>
+      <c r="C65" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D65" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E65" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="F65" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>90.24</v>
+      </c>
+      <c r="G65" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="129">
+        <v>48</v>
+      </c>
+      <c r="C66" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D66" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>operador</v>
+      </c>
+      <c r="E66" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F66" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>42.98</v>
+      </c>
+      <c r="G66" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="122">
+        <v>49</v>
+      </c>
+      <c r="C67" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>hombre</v>
+      </c>
+      <c r="D67" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E67" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="F67" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>96.28</v>
+      </c>
+      <c r="G67" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="129">
+        <v>50</v>
+      </c>
+      <c r="C68" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>hombre</v>
+      </c>
+      <c r="D68" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E68" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="F68" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>59.07</v>
+      </c>
+      <c r="G68" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="122">
+        <v>51</v>
+      </c>
+      <c r="C69" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D69" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E69" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="F69" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>42.74</v>
+      </c>
+      <c r="G69" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="129">
+        <v>52</v>
+      </c>
+      <c r="C70" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>hombre</v>
+      </c>
+      <c r="D70" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>operador</v>
+      </c>
+      <c r="E70" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F70" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>30.28</v>
+      </c>
+      <c r="G70" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="122">
+        <v>53</v>
+      </c>
+      <c r="C71" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D71" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E71" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="F71" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>85.18</v>
+      </c>
+      <c r="G71" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="129">
+        <v>54</v>
+      </c>
+      <c r="C72" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>hombre</v>
+      </c>
+      <c r="D72" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E72" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="F72" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>56.79</v>
+      </c>
+      <c r="G72" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="122">
+        <v>55</v>
+      </c>
+      <c r="C73" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D73" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E73" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="F73" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>73.77</v>
+      </c>
+      <c r="G73" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="129">
+        <v>56</v>
+      </c>
+      <c r="C74" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D74" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>suma</v>
+      </c>
+      <c r="E74" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F74" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>83.48</v>
+      </c>
+      <c r="G74" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="122">
+        <v>57</v>
+      </c>
+      <c r="C75" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D75" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E75" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="F75" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>59.1</v>
+      </c>
+      <c r="G75" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="129">
+        <v>58</v>
+      </c>
+      <c r="C76" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>hombre</v>
+      </c>
+      <c r="D76" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>operador</v>
+      </c>
+      <c r="E76" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="F76" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>92.76</v>
+      </c>
+      <c r="G76" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="122">
+        <v>59</v>
+      </c>
+      <c r="C77" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D77" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>operador</v>
+      </c>
+      <c r="E77" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="F77" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>92.43</v>
+      </c>
+      <c r="G77" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="129">
+        <v>60</v>
+      </c>
+      <c r="C78" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D78" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E78" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F78" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>48.24</v>
+      </c>
+      <c r="G78" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="122">
+        <v>61</v>
+      </c>
+      <c r="C79" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D79" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>operador</v>
+      </c>
+      <c r="E79" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="F79" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>58.55</v>
+      </c>
+      <c r="G79" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="129">
+        <v>62</v>
+      </c>
+      <c r="C80" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D80" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>operador</v>
+      </c>
+      <c r="E80" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F80" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>20.260000000000002</v>
+      </c>
+      <c r="G80" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="122">
+        <v>63</v>
+      </c>
+      <c r="C81" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D81" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>suma</v>
+      </c>
+      <c r="E81" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F81" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>74.23</v>
+      </c>
+      <c r="G81" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="129">
+        <v>64</v>
+      </c>
+      <c r="C82" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D82" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>operador</v>
+      </c>
+      <c r="E82" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F82" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>72.040000000000006</v>
+      </c>
+      <c r="G82" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="122">
+        <v>65</v>
+      </c>
+      <c r="C83" s="122" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>mujer</v>
+      </c>
+      <c r="D83" s="122" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E83" s="122">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="F83" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>63.74</v>
+      </c>
+      <c r="G83" s="129">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="129">
+        <v>66</v>
+      </c>
+      <c r="C84" s="122" t="str">
+        <f t="shared" ref="C84:C147" ca="1" si="8">IF(RANDBETWEEN(0,1)=0,"hombre","mujer")</f>
+        <v>mujer</v>
+      </c>
+      <c r="D84" s="122" t="str">
+        <f t="shared" ref="D84:D147" ca="1" si="9">INDEX($Q$19:$Q$24,RANDBETWEEN(1,COUNTA($Q$19:$Q$24)),1)</f>
+        <v>funcionario</v>
+      </c>
+      <c r="E84" s="122">
+        <f t="shared" ref="E84:E147" ca="1" si="10">RANDBETWEEN(10,75)</f>
+        <v>67</v>
+      </c>
+      <c r="F84" s="129">
+        <f t="shared" ca="1" si="6"/>
+        <v>69.959999999999994</v>
+      </c>
+      <c r="G84" s="129">
+        <f t="shared" ref="G84:G147" ca="1" si="11">RANDBETWEEN(1*100,2*100)/100</f>
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="122">
+        <v>67</v>
+      </c>
+      <c r="C85" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>mujer</v>
+      </c>
+      <c r="D85" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E85" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="F85" s="129">
+        <f t="shared" ref="F85:F148" ca="1" si="12">RANDBETWEEN(20*100,100*100)/100</f>
+        <v>51.93</v>
+      </c>
+      <c r="G85" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="129">
+        <v>68</v>
+      </c>
+      <c r="C86" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D86" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>operador</v>
+      </c>
+      <c r="E86" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>73</v>
+      </c>
+      <c r="F86" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>33.33</v>
+      </c>
+      <c r="G86" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="122">
+        <v>69</v>
+      </c>
+      <c r="C87" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>mujer</v>
+      </c>
+      <c r="D87" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>suma</v>
+      </c>
+      <c r="E87" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="F87" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>44.47</v>
+      </c>
+      <c r="G87" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="129">
+        <v>70</v>
+      </c>
+      <c r="C88" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D88" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E88" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>61</v>
+      </c>
+      <c r="F88" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>21.08</v>
+      </c>
+      <c r="G88" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="122">
+        <v>71</v>
+      </c>
+      <c r="C89" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D89" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E89" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="F89" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>58.71</v>
+      </c>
+      <c r="G89" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="129">
+        <v>72</v>
+      </c>
+      <c r="C90" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>mujer</v>
+      </c>
+      <c r="D90" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E90" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>53</v>
+      </c>
+      <c r="F90" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>86.48</v>
+      </c>
+      <c r="G90" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="122">
+        <v>73</v>
+      </c>
+      <c r="C91" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>mujer</v>
+      </c>
+      <c r="D91" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>operador</v>
+      </c>
+      <c r="E91" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="F91" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>63.83</v>
+      </c>
+      <c r="G91" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="129">
+        <v>74</v>
+      </c>
+      <c r="C92" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D92" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E92" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="F92" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>55.71</v>
+      </c>
+      <c r="G92" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="122">
+        <v>75</v>
+      </c>
+      <c r="C93" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D93" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E93" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="F93" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>25.7</v>
+      </c>
+      <c r="G93" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="129">
+        <v>76</v>
+      </c>
+      <c r="C94" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D94" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E94" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="F94" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>30.36</v>
+      </c>
+      <c r="G94" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="122">
+        <v>77</v>
+      </c>
+      <c r="C95" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D95" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E95" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>57</v>
+      </c>
+      <c r="F95" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>96.61</v>
+      </c>
+      <c r="G95" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="129">
+        <v>78</v>
+      </c>
+      <c r="C96" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D96" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>operador</v>
+      </c>
+      <c r="E96" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="F96" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>69.17</v>
+      </c>
+      <c r="G96" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="122">
+        <v>79</v>
+      </c>
+      <c r="C97" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D97" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E97" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>58</v>
+      </c>
+      <c r="F97" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>62.85</v>
+      </c>
+      <c r="G97" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="129">
+        <v>80</v>
+      </c>
+      <c r="C98" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D98" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E98" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="F98" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>44.29</v>
+      </c>
+      <c r="G98" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="122">
+        <v>81</v>
+      </c>
+      <c r="C99" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>mujer</v>
+      </c>
+      <c r="D99" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E99" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="F99" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>30.75</v>
+      </c>
+      <c r="G99" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="129">
+        <v>82</v>
+      </c>
+      <c r="C100" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D100" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E100" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="F100" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>80.599999999999994</v>
+      </c>
+      <c r="G100" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="122">
+        <v>83</v>
+      </c>
+      <c r="C101" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D101" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E101" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>68</v>
+      </c>
+      <c r="F101" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>43.13</v>
+      </c>
+      <c r="G101" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="129">
+        <v>84</v>
+      </c>
+      <c r="C102" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>mujer</v>
+      </c>
+      <c r="D102" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>operador</v>
+      </c>
+      <c r="E102" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>41</v>
+      </c>
+      <c r="F102" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>49.09</v>
+      </c>
+      <c r="G102" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="122">
+        <v>85</v>
+      </c>
+      <c r="C103" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>mujer</v>
+      </c>
+      <c r="D103" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E103" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>68</v>
+      </c>
+      <c r="F103" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>62.78</v>
+      </c>
+      <c r="G103" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="129">
+        <v>86</v>
+      </c>
+      <c r="C104" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D104" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E104" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>31</v>
+      </c>
+      <c r="F104" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>47.23</v>
+      </c>
+      <c r="G104" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="122">
+        <v>87</v>
+      </c>
+      <c r="C105" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D105" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E105" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>67</v>
+      </c>
+      <c r="F105" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>68.73</v>
+      </c>
+      <c r="G105" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="129">
+        <v>88</v>
+      </c>
+      <c r="C106" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>mujer</v>
+      </c>
+      <c r="D106" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E106" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>67</v>
+      </c>
+      <c r="F106" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>79.06</v>
+      </c>
+      <c r="G106" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="122">
+        <v>89</v>
+      </c>
+      <c r="C107" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>mujer</v>
+      </c>
+      <c r="D107" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E107" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="F107" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>81.67</v>
+      </c>
+      <c r="G107" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="129">
+        <v>90</v>
+      </c>
+      <c r="C108" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>mujer</v>
+      </c>
+      <c r="D108" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E108" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>73</v>
+      </c>
+      <c r="F108" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>40.020000000000003</v>
+      </c>
+      <c r="G108" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="122">
+        <v>91</v>
+      </c>
+      <c r="C109" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D109" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E109" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="F109" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>35.99</v>
+      </c>
+      <c r="G109" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="129">
+        <v>92</v>
+      </c>
+      <c r="C110" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D110" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E110" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="F110" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>57.52</v>
+      </c>
+      <c r="G110" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="122">
+        <v>93</v>
+      </c>
+      <c r="C111" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D111" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>operador</v>
+      </c>
+      <c r="E111" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>74</v>
+      </c>
+      <c r="F111" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>23.07</v>
+      </c>
+      <c r="G111" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="129">
+        <v>94</v>
+      </c>
+      <c r="C112" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>mujer</v>
+      </c>
+      <c r="D112" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>suma</v>
+      </c>
+      <c r="E112" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="F112" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>82.55</v>
+      </c>
+      <c r="G112" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="122">
+        <v>95</v>
+      </c>
+      <c r="C113" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>mujer</v>
+      </c>
+      <c r="D113" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E113" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="F113" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>81.73</v>
+      </c>
+      <c r="G113" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="129">
+        <v>96</v>
+      </c>
+      <c r="C114" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D114" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>suma</v>
+      </c>
+      <c r="E114" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>71</v>
+      </c>
+      <c r="F114" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>25.91</v>
+      </c>
+      <c r="G114" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="122">
+        <v>97</v>
+      </c>
+      <c r="C115" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D115" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E115" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="F115" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>51.5</v>
+      </c>
+      <c r="G115" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="129">
+        <v>98</v>
+      </c>
+      <c r="C116" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>mujer</v>
+      </c>
+      <c r="D116" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E116" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="F116" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>38.17</v>
+      </c>
+      <c r="G116" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="122">
+        <v>99</v>
+      </c>
+      <c r="C117" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D117" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E117" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="F117" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>43.19</v>
+      </c>
+      <c r="G117" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="129">
+        <v>100</v>
+      </c>
+      <c r="C118" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D118" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>suma</v>
+      </c>
+      <c r="E118" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="F118" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>98.8</v>
+      </c>
+      <c r="G118" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="122">
+        <v>101</v>
+      </c>
+      <c r="C119" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D119" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E119" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="F119" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>95.47</v>
+      </c>
+      <c r="G119" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="129">
+        <v>102</v>
+      </c>
+      <c r="C120" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D120" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>suma</v>
+      </c>
+      <c r="E120" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>68</v>
+      </c>
+      <c r="F120" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>65.98</v>
+      </c>
+      <c r="G120" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="122">
+        <v>103</v>
+      </c>
+      <c r="C121" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D121" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>suma</v>
+      </c>
+      <c r="E121" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>68</v>
+      </c>
+      <c r="F121" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>39.11</v>
+      </c>
+      <c r="G121" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="129">
+        <v>104</v>
+      </c>
+      <c r="C122" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>mujer</v>
+      </c>
+      <c r="D122" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>suma</v>
+      </c>
+      <c r="E122" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="F122" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>45.72</v>
+      </c>
+      <c r="G122" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="122">
+        <v>105</v>
+      </c>
+      <c r="C123" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D123" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E123" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="F123" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>51.5</v>
+      </c>
+      <c r="G123" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="129">
+        <v>106</v>
+      </c>
+      <c r="C124" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>mujer</v>
+      </c>
+      <c r="D124" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E124" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>51</v>
+      </c>
+      <c r="F124" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>64.58</v>
+      </c>
+      <c r="G124" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="122">
+        <v>107</v>
+      </c>
+      <c r="C125" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>mujer</v>
+      </c>
+      <c r="D125" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>suma</v>
+      </c>
+      <c r="E125" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="F125" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>20.61</v>
+      </c>
+      <c r="G125" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="129">
+        <v>108</v>
+      </c>
+      <c r="C126" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D126" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E126" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>63</v>
+      </c>
+      <c r="F126" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>74.459999999999994</v>
+      </c>
+      <c r="G126" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="122">
+        <v>109</v>
+      </c>
+      <c r="C127" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>mujer</v>
+      </c>
+      <c r="D127" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>operador</v>
+      </c>
+      <c r="E127" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="F127" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>59.14</v>
+      </c>
+      <c r="G127" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="129">
+        <v>110</v>
+      </c>
+      <c r="C128" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D128" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E128" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="F128" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>99.83</v>
+      </c>
+      <c r="G128" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="122">
+        <v>111</v>
+      </c>
+      <c r="C129" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D129" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>operador</v>
+      </c>
+      <c r="E129" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="F129" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>84.3</v>
+      </c>
+      <c r="G129" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="129">
+        <v>112</v>
+      </c>
+      <c r="C130" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>mujer</v>
+      </c>
+      <c r="D130" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>suma</v>
+      </c>
+      <c r="E130" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>31</v>
+      </c>
+      <c r="F130" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>52.84</v>
+      </c>
+      <c r="G130" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="122">
+        <v>113</v>
+      </c>
+      <c r="C131" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>mujer</v>
+      </c>
+      <c r="D131" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>suma</v>
+      </c>
+      <c r="E131" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>73</v>
+      </c>
+      <c r="F131" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>52.96</v>
+      </c>
+      <c r="G131" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="129">
+        <v>114</v>
+      </c>
+      <c r="C132" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D132" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E132" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>56</v>
+      </c>
+      <c r="F132" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>58.75</v>
+      </c>
+      <c r="G132" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133" s="122">
+        <v>115</v>
+      </c>
+      <c r="C133" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>mujer</v>
+      </c>
+      <c r="D133" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>operador</v>
+      </c>
+      <c r="E133" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="F133" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>50.69</v>
+      </c>
+      <c r="G133" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="129">
+        <v>116</v>
+      </c>
+      <c r="C134" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>mujer</v>
+      </c>
+      <c r="D134" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>suma</v>
+      </c>
+      <c r="E134" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="F134" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>84.55</v>
+      </c>
+      <c r="G134" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135" s="122">
+        <v>117</v>
+      </c>
+      <c r="C135" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D135" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E135" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="F135" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>20.86</v>
+      </c>
+      <c r="G135" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136" s="129">
+        <v>118</v>
+      </c>
+      <c r="C136" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>mujer</v>
+      </c>
+      <c r="D136" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E136" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="F136" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>86.21</v>
+      </c>
+      <c r="G136" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137" s="122">
+        <v>119</v>
+      </c>
+      <c r="C137" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>mujer</v>
+      </c>
+      <c r="D137" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E137" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>73</v>
+      </c>
+      <c r="F137" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>60.37</v>
+      </c>
+      <c r="G137" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B138" s="129">
+        <v>120</v>
+      </c>
+      <c r="C138" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D138" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>operador</v>
+      </c>
+      <c r="E138" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="F138" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>27.27</v>
+      </c>
+      <c r="G138" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139" s="122">
+        <v>121</v>
+      </c>
+      <c r="C139" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D139" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E139" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>29</v>
+      </c>
+      <c r="F139" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>71.42</v>
+      </c>
+      <c r="G139" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B140" s="129">
+        <v>122</v>
+      </c>
+      <c r="C140" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>mujer</v>
+      </c>
+      <c r="D140" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>operador</v>
+      </c>
+      <c r="E140" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="F140" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>83.62</v>
+      </c>
+      <c r="G140" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B141" s="122">
+        <v>123</v>
+      </c>
+      <c r="C141" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>mujer</v>
+      </c>
+      <c r="D141" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E141" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="F141" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>40.85</v>
+      </c>
+      <c r="G141" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142" s="129">
+        <v>124</v>
+      </c>
+      <c r="C142" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D142" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E142" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="F142" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>59.08</v>
+      </c>
+      <c r="G142" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B143" s="122">
+        <v>125</v>
+      </c>
+      <c r="C143" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D143" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E143" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="F143" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>84.54</v>
+      </c>
+      <c r="G143" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B144" s="129">
+        <v>126</v>
+      </c>
+      <c r="C144" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D144" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E144" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>56</v>
+      </c>
+      <c r="F144" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>28.96</v>
+      </c>
+      <c r="G144" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B145" s="122">
+        <v>127</v>
+      </c>
+      <c r="C145" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D145" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E145" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>56</v>
+      </c>
+      <c r="F145" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>27.68</v>
+      </c>
+      <c r="G145" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B146" s="129">
+        <v>128</v>
+      </c>
+      <c r="C146" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>hombre</v>
+      </c>
+      <c r="D146" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>operador</v>
+      </c>
+      <c r="E146" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="F146" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>45.52</v>
+      </c>
+      <c r="G146" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B147" s="122">
+        <v>129</v>
+      </c>
+      <c r="C147" s="122" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>mujer</v>
+      </c>
+      <c r="D147" s="122" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>operador</v>
+      </c>
+      <c r="E147" s="122">
+        <f t="shared" ca="1" si="10"/>
+        <v>54</v>
+      </c>
+      <c r="F147" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>27.46</v>
+      </c>
+      <c r="G147" s="129">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B148" s="129">
+        <v>130</v>
+      </c>
+      <c r="C148" s="122" t="str">
+        <f t="shared" ref="C148:C211" ca="1" si="13">IF(RANDBETWEEN(0,1)=0,"hombre","mujer")</f>
+        <v>mujer</v>
+      </c>
+      <c r="D148" s="122" t="str">
+        <f t="shared" ref="D148:D211" ca="1" si="14">INDEX($Q$19:$Q$24,RANDBETWEEN(1,COUNTA($Q$19:$Q$24)),1)</f>
+        <v>comerciante</v>
+      </c>
+      <c r="E148" s="122">
+        <f t="shared" ref="E148:E211" ca="1" si="15">RANDBETWEEN(10,75)</f>
+        <v>59</v>
+      </c>
+      <c r="F148" s="129">
+        <f t="shared" ca="1" si="12"/>
+        <v>62.45</v>
+      </c>
+      <c r="G148" s="129">
+        <f t="shared" ref="G148:G211" ca="1" si="16">RANDBETWEEN(1*100,2*100)/100</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B149" s="122">
+        <v>131</v>
+      </c>
+      <c r="C149" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>mujer</v>
+      </c>
+      <c r="D149" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>suma</v>
+      </c>
+      <c r="E149" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>60</v>
+      </c>
+      <c r="F149" s="129">
+        <f t="shared" ref="F149:F212" ca="1" si="17">RANDBETWEEN(20*100,100*100)/100</f>
+        <v>86.95</v>
+      </c>
+      <c r="G149" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B150" s="129">
+        <v>132</v>
+      </c>
+      <c r="C150" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>mujer</v>
+      </c>
+      <c r="D150" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E150" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>61</v>
+      </c>
+      <c r="F150" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>50.8</v>
+      </c>
+      <c r="G150" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B151" s="122">
+        <v>133</v>
+      </c>
+      <c r="C151" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D151" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E151" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>38</v>
+      </c>
+      <c r="F151" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>75.22</v>
+      </c>
+      <c r="G151" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B152" s="129">
+        <v>134</v>
+      </c>
+      <c r="C152" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D152" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E152" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="F152" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>78.08</v>
+      </c>
+      <c r="G152" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B153" s="122">
+        <v>135</v>
+      </c>
+      <c r="C153" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D153" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>suma</v>
+      </c>
+      <c r="E153" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>32</v>
+      </c>
+      <c r="F153" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>79.069999999999993</v>
+      </c>
+      <c r="G153" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B154" s="129">
+        <v>136</v>
+      </c>
+      <c r="C154" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>mujer</v>
+      </c>
+      <c r="D154" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E154" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>33</v>
+      </c>
+      <c r="F154" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>53.53</v>
+      </c>
+      <c r="G154" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B155" s="122">
+        <v>137</v>
+      </c>
+      <c r="C155" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>mujer</v>
+      </c>
+      <c r="D155" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E155" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>43</v>
+      </c>
+      <c r="F155" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>26.59</v>
+      </c>
+      <c r="G155" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B156" s="129">
+        <v>138</v>
+      </c>
+      <c r="C156" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D156" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>operador</v>
+      </c>
+      <c r="E156" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="F156" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>62.83</v>
+      </c>
+      <c r="G156" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B157" s="122">
+        <v>139</v>
+      </c>
+      <c r="C157" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D157" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E157" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>53</v>
+      </c>
+      <c r="F157" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>77.91</v>
+      </c>
+      <c r="G157" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B158" s="129">
+        <v>140</v>
+      </c>
+      <c r="C158" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>mujer</v>
+      </c>
+      <c r="D158" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E158" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>65</v>
+      </c>
+      <c r="F158" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>22.73</v>
+      </c>
+      <c r="G158" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B159" s="122">
+        <v>141</v>
+      </c>
+      <c r="C159" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>mujer</v>
+      </c>
+      <c r="D159" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E159" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="F159" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>28.5</v>
+      </c>
+      <c r="G159" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B160" s="129">
+        <v>142</v>
+      </c>
+      <c r="C160" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>mujer</v>
+      </c>
+      <c r="D160" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E160" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="F160" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>58.37</v>
+      </c>
+      <c r="G160" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B161" s="122">
+        <v>143</v>
+      </c>
+      <c r="C161" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>mujer</v>
+      </c>
+      <c r="D161" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E161" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>69</v>
+      </c>
+      <c r="F161" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>45.69</v>
+      </c>
+      <c r="G161" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B162" s="129">
+        <v>144</v>
+      </c>
+      <c r="C162" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>mujer</v>
+      </c>
+      <c r="D162" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E162" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>37</v>
+      </c>
+      <c r="F162" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>46.84</v>
+      </c>
+      <c r="G162" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B163" s="122">
+        <v>145</v>
+      </c>
+      <c r="C163" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D163" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E163" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="F163" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>67.56</v>
+      </c>
+      <c r="G163" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B164" s="129">
+        <v>146</v>
+      </c>
+      <c r="C164" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D164" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E164" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="F164" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>88.75</v>
+      </c>
+      <c r="G164" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B165" s="122">
+        <v>147</v>
+      </c>
+      <c r="C165" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>mujer</v>
+      </c>
+      <c r="D165" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E165" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>34</v>
+      </c>
+      <c r="F165" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>31.33</v>
+      </c>
+      <c r="G165" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B166" s="129">
+        <v>148</v>
+      </c>
+      <c r="C166" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>mujer</v>
+      </c>
+      <c r="D166" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E166" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="F166" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>81.66</v>
+      </c>
+      <c r="G166" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B167" s="122">
+        <v>149</v>
+      </c>
+      <c r="C167" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D167" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E167" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="F167" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>36.369999999999997</v>
+      </c>
+      <c r="G167" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B168" s="129">
+        <v>150</v>
+      </c>
+      <c r="C168" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D168" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>suma</v>
+      </c>
+      <c r="E168" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="F168" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>56.98</v>
+      </c>
+      <c r="G168" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B169" s="122">
+        <v>151</v>
+      </c>
+      <c r="C169" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D169" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E169" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="F169" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>43.57</v>
+      </c>
+      <c r="G169" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B170" s="129">
+        <v>152</v>
+      </c>
+      <c r="C170" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D170" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E170" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>58</v>
+      </c>
+      <c r="F170" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>54.41</v>
+      </c>
+      <c r="G170" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B171" s="122">
+        <v>153</v>
+      </c>
+      <c r="C171" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D171" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>suma</v>
+      </c>
+      <c r="E171" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="F171" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>78.19</v>
+      </c>
+      <c r="G171" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B172" s="129">
+        <v>154</v>
+      </c>
+      <c r="C172" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D172" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E172" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>26</v>
+      </c>
+      <c r="F172" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>72.95</v>
+      </c>
+      <c r="G172" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B173" s="122">
+        <v>155</v>
+      </c>
+      <c r="C173" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D173" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E173" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="F173" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>65.930000000000007</v>
+      </c>
+      <c r="G173" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B174" s="129">
+        <v>156</v>
+      </c>
+      <c r="C174" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D174" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E174" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>74</v>
+      </c>
+      <c r="F174" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>48.41</v>
+      </c>
+      <c r="G174" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B175" s="122">
+        <v>157</v>
+      </c>
+      <c r="C175" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>mujer</v>
+      </c>
+      <c r="D175" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>operador</v>
+      </c>
+      <c r="E175" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="F175" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>73.77</v>
+      </c>
+      <c r="G175" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B176" s="129">
+        <v>158</v>
+      </c>
+      <c r="C176" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D176" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E176" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="F176" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>44.35</v>
+      </c>
+      <c r="G176" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B177" s="122">
+        <v>159</v>
+      </c>
+      <c r="C177" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>mujer</v>
+      </c>
+      <c r="D177" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E177" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>54</v>
+      </c>
+      <c r="F177" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>78.48</v>
+      </c>
+      <c r="G177" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B178" s="129">
+        <v>160</v>
+      </c>
+      <c r="C178" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D178" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E178" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>25</v>
+      </c>
+      <c r="F178" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>79.77</v>
+      </c>
+      <c r="G178" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B179" s="122">
+        <v>161</v>
+      </c>
+      <c r="C179" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>mujer</v>
+      </c>
+      <c r="D179" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E179" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>66</v>
+      </c>
+      <c r="F179" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>89.31</v>
+      </c>
+      <c r="G179" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B180" s="129">
+        <v>162</v>
+      </c>
+      <c r="C180" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>mujer</v>
+      </c>
+      <c r="D180" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E180" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>75</v>
+      </c>
+      <c r="F180" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>83.22</v>
+      </c>
+      <c r="G180" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B181" s="122">
+        <v>163</v>
+      </c>
+      <c r="C181" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D181" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E181" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>43</v>
+      </c>
+      <c r="F181" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>77.05</v>
+      </c>
+      <c r="G181" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B182" s="129">
+        <v>164</v>
+      </c>
+      <c r="C182" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>mujer</v>
+      </c>
+      <c r="D182" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E182" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>42</v>
+      </c>
+      <c r="F182" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>97.76</v>
+      </c>
+      <c r="G182" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B183" s="122">
+        <v>165</v>
+      </c>
+      <c r="C183" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D183" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E183" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>53</v>
+      </c>
+      <c r="F183" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>52.33</v>
+      </c>
+      <c r="G183" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B184" s="129">
+        <v>166</v>
+      </c>
+      <c r="C184" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>mujer</v>
+      </c>
+      <c r="D184" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E184" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>55</v>
+      </c>
+      <c r="F184" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>53.55</v>
+      </c>
+      <c r="G184" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B185" s="122">
+        <v>167</v>
+      </c>
+      <c r="C185" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>mujer</v>
+      </c>
+      <c r="D185" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E185" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="F185" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>42.13</v>
+      </c>
+      <c r="G185" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B186" s="129">
+        <v>168</v>
+      </c>
+      <c r="C186" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>mujer</v>
+      </c>
+      <c r="D186" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>suma</v>
+      </c>
+      <c r="E186" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>58</v>
+      </c>
+      <c r="F186" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>36.01</v>
+      </c>
+      <c r="G186" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B187" s="122">
+        <v>169</v>
+      </c>
+      <c r="C187" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D187" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E187" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>62</v>
+      </c>
+      <c r="F187" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>30.26</v>
+      </c>
+      <c r="G187" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B188" s="129">
+        <v>170</v>
+      </c>
+      <c r="C188" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D188" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>suma</v>
+      </c>
+      <c r="E188" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>37</v>
+      </c>
+      <c r="F188" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>45.91</v>
+      </c>
+      <c r="G188" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B189" s="122">
+        <v>171</v>
+      </c>
+      <c r="C189" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D189" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>operador</v>
+      </c>
+      <c r="E189" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="F189" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>90.16</v>
+      </c>
+      <c r="G189" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B190" s="129">
+        <v>172</v>
+      </c>
+      <c r="C190" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>mujer</v>
+      </c>
+      <c r="D190" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>suma</v>
+      </c>
+      <c r="E190" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>26</v>
+      </c>
+      <c r="F190" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>33.83</v>
+      </c>
+      <c r="G190" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B191" s="122">
+        <v>173</v>
+      </c>
+      <c r="C191" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D191" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E191" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>41</v>
+      </c>
+      <c r="F191" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>76.459999999999994</v>
+      </c>
+      <c r="G191" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B192" s="129">
+        <v>174</v>
+      </c>
+      <c r="C192" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D192" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>operador</v>
+      </c>
+      <c r="E192" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="F192" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>46.42</v>
+      </c>
+      <c r="G192" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B193" s="122">
+        <v>175</v>
+      </c>
+      <c r="C193" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D193" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E193" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>46</v>
+      </c>
+      <c r="F193" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>45.6</v>
+      </c>
+      <c r="G193" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B194" s="129">
+        <v>176</v>
+      </c>
+      <c r="C194" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D194" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E194" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>59</v>
+      </c>
+      <c r="F194" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>72.56</v>
+      </c>
+      <c r="G194" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B195" s="122">
+        <v>177</v>
+      </c>
+      <c r="C195" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D195" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E195" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>42</v>
+      </c>
+      <c r="F195" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>49.96</v>
+      </c>
+      <c r="G195" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B196" s="129">
+        <v>178</v>
+      </c>
+      <c r="C196" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>mujer</v>
+      </c>
+      <c r="D196" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E196" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="F196" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>70.39</v>
+      </c>
+      <c r="G196" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B197" s="122">
+        <v>179</v>
+      </c>
+      <c r="C197" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D197" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E197" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>54</v>
+      </c>
+      <c r="F197" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>99.11</v>
+      </c>
+      <c r="G197" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B198" s="129">
+        <v>180</v>
+      </c>
+      <c r="C198" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>mujer</v>
+      </c>
+      <c r="D198" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>operador</v>
+      </c>
+      <c r="E198" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>33</v>
+      </c>
+      <c r="F198" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>44.95</v>
+      </c>
+      <c r="G198" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B199" s="122">
+        <v>181</v>
+      </c>
+      <c r="C199" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D199" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>operador</v>
+      </c>
+      <c r="E199" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>41</v>
+      </c>
+      <c r="F199" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>60.3</v>
+      </c>
+      <c r="G199" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B200" s="129">
+        <v>182</v>
+      </c>
+      <c r="C200" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D200" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>operador</v>
+      </c>
+      <c r="E200" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="F200" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>78.13</v>
+      </c>
+      <c r="G200" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B201" s="122">
+        <v>183</v>
+      </c>
+      <c r="C201" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>mujer</v>
+      </c>
+      <c r="D201" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E201" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>73</v>
+      </c>
+      <c r="F201" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>82.12</v>
+      </c>
+      <c r="G201" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B202" s="129">
+        <v>184</v>
+      </c>
+      <c r="C202" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D202" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E202" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="F202" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>34.71</v>
+      </c>
+      <c r="G202" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B203" s="122">
+        <v>185</v>
+      </c>
+      <c r="C203" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D203" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>operador</v>
+      </c>
+      <c r="E203" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="F203" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>88.34</v>
+      </c>
+      <c r="G203" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B204" s="129">
+        <v>186</v>
+      </c>
+      <c r="C204" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D204" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E204" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="F204" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>58.86</v>
+      </c>
+      <c r="G204" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B205" s="122">
+        <v>187</v>
+      </c>
+      <c r="C205" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>mujer</v>
+      </c>
+      <c r="D205" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E205" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="F205" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>34.47</v>
+      </c>
+      <c r="G205" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B206" s="129">
+        <v>188</v>
+      </c>
+      <c r="C206" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D206" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E206" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>41</v>
+      </c>
+      <c r="F206" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>41.16</v>
+      </c>
+      <c r="G206" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B207" s="122">
+        <v>189</v>
+      </c>
+      <c r="C207" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D207" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E207" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>73</v>
+      </c>
+      <c r="F207" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>80.44</v>
+      </c>
+      <c r="G207" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B208" s="129">
+        <v>190</v>
+      </c>
+      <c r="C208" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D208" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E208" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>29</v>
+      </c>
+      <c r="F208" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>92.09</v>
+      </c>
+      <c r="G208" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B209" s="122">
+        <v>191</v>
+      </c>
+      <c r="C209" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>mujer</v>
+      </c>
+      <c r="D209" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E209" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>22</v>
+      </c>
+      <c r="F209" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>67.95</v>
+      </c>
+      <c r="G209" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B210" s="129">
+        <v>192</v>
+      </c>
+      <c r="C210" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D210" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>operador</v>
+      </c>
+      <c r="E210" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>59</v>
+      </c>
+      <c r="F210" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>78.36</v>
+      </c>
+      <c r="G210" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B211" s="122">
+        <v>193</v>
+      </c>
+      <c r="C211" s="122" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>hombre</v>
+      </c>
+      <c r="D211" s="122" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>operador</v>
+      </c>
+      <c r="E211" s="122">
+        <f t="shared" ca="1" si="15"/>
+        <v>57</v>
+      </c>
+      <c r="F211" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>32.29</v>
+      </c>
+      <c r="G211" s="129">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B212" s="129">
+        <v>194</v>
+      </c>
+      <c r="C212" s="122" t="str">
+        <f t="shared" ref="C212:C275" ca="1" si="18">IF(RANDBETWEEN(0,1)=0,"hombre","mujer")</f>
+        <v>hombre</v>
+      </c>
+      <c r="D212" s="122" t="str">
+        <f t="shared" ref="D212:D275" ca="1" si="19">INDEX($Q$19:$Q$24,RANDBETWEEN(1,COUNTA($Q$19:$Q$24)),1)</f>
+        <v>comerciante</v>
+      </c>
+      <c r="E212" s="122">
+        <f t="shared" ref="E212:E275" ca="1" si="20">RANDBETWEEN(10,75)</f>
+        <v>22</v>
+      </c>
+      <c r="F212" s="129">
+        <f t="shared" ca="1" si="17"/>
+        <v>67.05</v>
+      </c>
+      <c r="G212" s="129">
+        <f t="shared" ref="G212:G275" ca="1" si="21">RANDBETWEEN(1*100,2*100)/100</f>
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B213" s="122">
+        <v>195</v>
+      </c>
+      <c r="C213" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D213" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E213" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>63</v>
+      </c>
+      <c r="F213" s="129">
+        <f t="shared" ref="F213:F276" ca="1" si="22">RANDBETWEEN(20*100,100*100)/100</f>
+        <v>79.14</v>
+      </c>
+      <c r="G213" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B214" s="129">
+        <v>196</v>
+      </c>
+      <c r="C214" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D214" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E214" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>45</v>
+      </c>
+      <c r="F214" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>73.47</v>
+      </c>
+      <c r="G214" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B215" s="122">
+        <v>197</v>
+      </c>
+      <c r="C215" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D215" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>operador</v>
+      </c>
+      <c r="E215" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>21</v>
+      </c>
+      <c r="F215" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>40.24</v>
+      </c>
+      <c r="G215" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B216" s="129">
+        <v>198</v>
+      </c>
+      <c r="C216" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D216" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>operador</v>
+      </c>
+      <c r="E216" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>43</v>
+      </c>
+      <c r="F216" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>39.99</v>
+      </c>
+      <c r="G216" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B217" s="122">
+        <v>199</v>
+      </c>
+      <c r="C217" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D217" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E217" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="F217" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>44.65</v>
+      </c>
+      <c r="G217" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B218" s="129">
+        <v>200</v>
+      </c>
+      <c r="C218" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D218" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>suma</v>
+      </c>
+      <c r="E218" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>47</v>
+      </c>
+      <c r="F218" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>39.64</v>
+      </c>
+      <c r="G218" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B219" s="122">
+        <v>201</v>
+      </c>
+      <c r="C219" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D219" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E219" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>68</v>
+      </c>
+      <c r="F219" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>47.28</v>
+      </c>
+      <c r="G219" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B220" s="129">
+        <v>202</v>
+      </c>
+      <c r="C220" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D220" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>suma</v>
+      </c>
+      <c r="E220" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>46</v>
+      </c>
+      <c r="F220" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>28.81</v>
+      </c>
+      <c r="G220" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B221" s="122">
+        <v>203</v>
+      </c>
+      <c r="C221" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D221" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E221" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>53</v>
+      </c>
+      <c r="F221" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>21.6</v>
+      </c>
+      <c r="G221" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B222" s="129">
+        <v>204</v>
+      </c>
+      <c r="C222" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D222" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>suma</v>
+      </c>
+      <c r="E222" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>56</v>
+      </c>
+      <c r="F222" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>80.34</v>
+      </c>
+      <c r="G222" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B223" s="122">
+        <v>205</v>
+      </c>
+      <c r="C223" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D223" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E223" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>67</v>
+      </c>
+      <c r="F223" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>28.59</v>
+      </c>
+      <c r="G223" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B224" s="129">
+        <v>206</v>
+      </c>
+      <c r="C224" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D224" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E224" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="F224" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G224" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B225" s="122">
+        <v>207</v>
+      </c>
+      <c r="C225" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D225" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E225" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="F225" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>34.22</v>
+      </c>
+      <c r="G225" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B226" s="129">
+        <v>208</v>
+      </c>
+      <c r="C226" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D226" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E226" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>74</v>
+      </c>
+      <c r="F226" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>25.19</v>
+      </c>
+      <c r="G226" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B227" s="122">
+        <v>209</v>
+      </c>
+      <c r="C227" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D227" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>operador</v>
+      </c>
+      <c r="E227" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>55</v>
+      </c>
+      <c r="F227" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>59.45</v>
+      </c>
+      <c r="G227" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B228" s="129">
+        <v>210</v>
+      </c>
+      <c r="C228" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D228" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E228" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>55</v>
+      </c>
+      <c r="F228" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>88.54</v>
+      </c>
+      <c r="G228" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B229" s="122">
+        <v>211</v>
+      </c>
+      <c r="C229" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D229" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>suma</v>
+      </c>
+      <c r="E229" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>26</v>
+      </c>
+      <c r="F229" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>22.09</v>
+      </c>
+      <c r="G229" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B230" s="129">
+        <v>212</v>
+      </c>
+      <c r="C230" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D230" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E230" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="F230" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>75.69</v>
+      </c>
+      <c r="G230" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B231" s="122">
+        <v>213</v>
+      </c>
+      <c r="C231" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D231" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E231" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="F231" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>32.03</v>
+      </c>
+      <c r="G231" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B232" s="129">
+        <v>214</v>
+      </c>
+      <c r="C232" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D232" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E232" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>69</v>
+      </c>
+      <c r="F232" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>85.48</v>
+      </c>
+      <c r="G232" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B233" s="122">
+        <v>215</v>
+      </c>
+      <c r="C233" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D233" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E233" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>74</v>
+      </c>
+      <c r="F233" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>26.56</v>
+      </c>
+      <c r="G233" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B234" s="129">
+        <v>216</v>
+      </c>
+      <c r="C234" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D234" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>suma</v>
+      </c>
+      <c r="E234" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>20</v>
+      </c>
+      <c r="F234" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>89.23</v>
+      </c>
+      <c r="G234" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="235" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B235" s="122">
+        <v>217</v>
+      </c>
+      <c r="C235" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D235" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E235" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="F235" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>21.41</v>
+      </c>
+      <c r="G235" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="236" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B236" s="129">
+        <v>218</v>
+      </c>
+      <c r="C236" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D236" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E236" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>11</v>
+      </c>
+      <c r="F236" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>74.760000000000005</v>
+      </c>
+      <c r="G236" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="237" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B237" s="122">
+        <v>219</v>
+      </c>
+      <c r="C237" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D237" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E237" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>57</v>
+      </c>
+      <c r="F237" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>42.07</v>
+      </c>
+      <c r="G237" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="238" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B238" s="129">
+        <v>220</v>
+      </c>
+      <c r="C238" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D238" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>operador</v>
+      </c>
+      <c r="E238" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="F238" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>57.62</v>
+      </c>
+      <c r="G238" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="239" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B239" s="122">
+        <v>221</v>
+      </c>
+      <c r="C239" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D239" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E239" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>71</v>
+      </c>
+      <c r="F239" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>53.66</v>
+      </c>
+      <c r="G239" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="240" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B240" s="129">
+        <v>222</v>
+      </c>
+      <c r="C240" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D240" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E240" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>57</v>
+      </c>
+      <c r="F240" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>41</v>
+      </c>
+      <c r="G240" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B241" s="122">
+        <v>223</v>
+      </c>
+      <c r="C241" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D241" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>operador</v>
+      </c>
+      <c r="E241" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>54</v>
+      </c>
+      <c r="F241" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="G241" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B242" s="129">
+        <v>224</v>
+      </c>
+      <c r="C242" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D242" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E242" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>40</v>
+      </c>
+      <c r="F242" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>62.79</v>
+      </c>
+      <c r="G242" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="243" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B243" s="122">
+        <v>225</v>
+      </c>
+      <c r="C243" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D243" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E243" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>60</v>
+      </c>
+      <c r="F243" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>23.44</v>
+      </c>
+      <c r="G243" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B244" s="129">
+        <v>226</v>
+      </c>
+      <c r="C244" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D244" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E244" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>61</v>
+      </c>
+      <c r="F244" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>48.5</v>
+      </c>
+      <c r="G244" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B245" s="122">
+        <v>227</v>
+      </c>
+      <c r="C245" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D245" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>operador</v>
+      </c>
+      <c r="E245" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>17</v>
+      </c>
+      <c r="F245" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>41.92</v>
+      </c>
+      <c r="G245" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="246" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B246" s="129">
+        <v>228</v>
+      </c>
+      <c r="C246" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D246" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E246" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>57</v>
+      </c>
+      <c r="F246" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>47.75</v>
+      </c>
+      <c r="G246" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="247" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B247" s="122">
+        <v>229</v>
+      </c>
+      <c r="C247" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D247" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E247" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>73</v>
+      </c>
+      <c r="F247" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>99.31</v>
+      </c>
+      <c r="G247" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="248" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B248" s="129">
+        <v>230</v>
+      </c>
+      <c r="C248" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D248" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E248" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>43</v>
+      </c>
+      <c r="F248" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>48.39</v>
+      </c>
+      <c r="G248" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="249" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B249" s="122">
+        <v>231</v>
+      </c>
+      <c r="C249" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D249" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>suma</v>
+      </c>
+      <c r="E249" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>45</v>
+      </c>
+      <c r="F249" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>88.14</v>
+      </c>
+      <c r="G249" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="250" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B250" s="129">
+        <v>232</v>
+      </c>
+      <c r="C250" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D250" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>operador</v>
+      </c>
+      <c r="E250" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>11</v>
+      </c>
+      <c r="F250" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>37.22</v>
+      </c>
+      <c r="G250" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="251" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B251" s="122">
+        <v>233</v>
+      </c>
+      <c r="C251" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D251" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E251" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>75</v>
+      </c>
+      <c r="F251" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>29.84</v>
+      </c>
+      <c r="G251" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B252" s="129">
+        <v>234</v>
+      </c>
+      <c r="C252" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D252" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E252" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>47</v>
+      </c>
+      <c r="F252" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>57.82</v>
+      </c>
+      <c r="G252" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="253" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B253" s="122">
+        <v>235</v>
+      </c>
+      <c r="C253" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D253" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E253" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>41</v>
+      </c>
+      <c r="F253" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>27.3</v>
+      </c>
+      <c r="G253" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="254" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B254" s="129">
+        <v>236</v>
+      </c>
+      <c r="C254" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D254" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>operador</v>
+      </c>
+      <c r="E254" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="F254" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>63.83</v>
+      </c>
+      <c r="G254" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="255" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B255" s="122">
+        <v>237</v>
+      </c>
+      <c r="C255" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D255" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E255" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="F255" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>98.44</v>
+      </c>
+      <c r="G255" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B256" s="129">
+        <v>238</v>
+      </c>
+      <c r="C256" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D256" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E256" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>73</v>
+      </c>
+      <c r="F256" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>25.15</v>
+      </c>
+      <c r="G256" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B257" s="122">
+        <v>239</v>
+      </c>
+      <c r="C257" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D257" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E257" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>24</v>
+      </c>
+      <c r="F257" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>74.69</v>
+      </c>
+      <c r="G257" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="258" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B258" s="129">
+        <v>240</v>
+      </c>
+      <c r="C258" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D258" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>suma</v>
+      </c>
+      <c r="E258" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="F258" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>52.95</v>
+      </c>
+      <c r="G258" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="259" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B259" s="122">
+        <v>241</v>
+      </c>
+      <c r="C259" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D259" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E259" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>75</v>
+      </c>
+      <c r="F259" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>35.9</v>
+      </c>
+      <c r="G259" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="260" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B260" s="129">
+        <v>242</v>
+      </c>
+      <c r="C260" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D260" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>operador</v>
+      </c>
+      <c r="E260" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="F260" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>59.25</v>
+      </c>
+      <c r="G260" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="261" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B261" s="122">
+        <v>243</v>
+      </c>
+      <c r="C261" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D261" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E261" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>54</v>
+      </c>
+      <c r="F261" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>78.8</v>
+      </c>
+      <c r="G261" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="262" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B262" s="129">
+        <v>244</v>
+      </c>
+      <c r="C262" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D262" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E262" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>45</v>
+      </c>
+      <c r="F262" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>73.010000000000005</v>
+      </c>
+      <c r="G262" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="263" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B263" s="122">
+        <v>245</v>
+      </c>
+      <c r="C263" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D263" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>suma</v>
+      </c>
+      <c r="E263" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>19</v>
+      </c>
+      <c r="F263" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>40.090000000000003</v>
+      </c>
+      <c r="G263" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="264" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B264" s="129">
+        <v>246</v>
+      </c>
+      <c r="C264" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D264" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E264" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>14</v>
+      </c>
+      <c r="F264" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>48.78</v>
+      </c>
+      <c r="G264" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="265" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B265" s="122">
+        <v>247</v>
+      </c>
+      <c r="C265" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D265" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>suma</v>
+      </c>
+      <c r="E265" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>72</v>
+      </c>
+      <c r="F265" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>84.36</v>
+      </c>
+      <c r="G265" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="266" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B266" s="129">
+        <v>248</v>
+      </c>
+      <c r="C266" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D266" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E266" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>72</v>
+      </c>
+      <c r="F266" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>51.45</v>
+      </c>
+      <c r="G266" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="267" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B267" s="122">
+        <v>249</v>
+      </c>
+      <c r="C267" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D267" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>suma</v>
+      </c>
+      <c r="E267" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>74</v>
+      </c>
+      <c r="F267" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>84.51</v>
+      </c>
+      <c r="G267" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="268" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B268" s="129">
+        <v>250</v>
+      </c>
+      <c r="C268" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D268" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>suma</v>
+      </c>
+      <c r="E268" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>38</v>
+      </c>
+      <c r="F268" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>45.98</v>
+      </c>
+      <c r="G268" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B269" s="122">
+        <v>251</v>
+      </c>
+      <c r="C269" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D269" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E269" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>45</v>
+      </c>
+      <c r="F269" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>40.74</v>
+      </c>
+      <c r="G269" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="270" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B270" s="129">
+        <v>252</v>
+      </c>
+      <c r="C270" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D270" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E270" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>40</v>
+      </c>
+      <c r="F270" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>89.39</v>
+      </c>
+      <c r="G270" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="271" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B271" s="122">
+        <v>253</v>
+      </c>
+      <c r="C271" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D271" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>suma</v>
+      </c>
+      <c r="E271" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>65</v>
+      </c>
+      <c r="F271" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>77.91</v>
+      </c>
+      <c r="G271" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="272" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B272" s="129">
+        <v>254</v>
+      </c>
+      <c r="C272" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D272" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E272" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>42</v>
+      </c>
+      <c r="F272" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>85.57</v>
+      </c>
+      <c r="G272" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="273" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B273" s="122">
+        <v>255</v>
+      </c>
+      <c r="C273" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D273" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E273" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>56</v>
+      </c>
+      <c r="F273" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>50.58</v>
+      </c>
+      <c r="G273" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="274" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B274" s="129">
+        <v>256</v>
+      </c>
+      <c r="C274" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>mujer</v>
+      </c>
+      <c r="D274" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>suma</v>
+      </c>
+      <c r="E274" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>50</v>
+      </c>
+      <c r="F274" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>97.77</v>
+      </c>
+      <c r="G274" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="275" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B275" s="122">
+        <v>257</v>
+      </c>
+      <c r="C275" s="122" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>hombre</v>
+      </c>
+      <c r="D275" s="122" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>suma</v>
+      </c>
+      <c r="E275" s="122">
+        <f t="shared" ca="1" si="20"/>
+        <v>51</v>
+      </c>
+      <c r="F275" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>78.78</v>
+      </c>
+      <c r="G275" s="129">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="276" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B276" s="129">
+        <v>258</v>
+      </c>
+      <c r="C276" s="122" t="str">
+        <f t="shared" ref="C276:C339" ca="1" si="23">IF(RANDBETWEEN(0,1)=0,"hombre","mujer")</f>
+        <v>mujer</v>
+      </c>
+      <c r="D276" s="122" t="str">
+        <f t="shared" ref="D276:D339" ca="1" si="24">INDEX($Q$19:$Q$24,RANDBETWEEN(1,COUNTA($Q$19:$Q$24)),1)</f>
+        <v>profesionista</v>
+      </c>
+      <c r="E276" s="122">
+        <f t="shared" ref="E276:E339" ca="1" si="25">RANDBETWEEN(10,75)</f>
+        <v>51</v>
+      </c>
+      <c r="F276" s="129">
+        <f t="shared" ca="1" si="22"/>
+        <v>31.78</v>
+      </c>
+      <c r="G276" s="129">
+        <f t="shared" ref="G276:G339" ca="1" si="26">RANDBETWEEN(1*100,2*100)/100</f>
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="277" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B277" s="122">
+        <v>259</v>
+      </c>
+      <c r="C277" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D277" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>operador</v>
+      </c>
+      <c r="E277" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>52</v>
+      </c>
+      <c r="F277" s="129">
+        <f t="shared" ref="F277:F340" ca="1" si="27">RANDBETWEEN(20*100,100*100)/100</f>
+        <v>34.71</v>
+      </c>
+      <c r="G277" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="278" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B278" s="129">
+        <v>260</v>
+      </c>
+      <c r="C278" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D278" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>operador</v>
+      </c>
+      <c r="E278" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>52</v>
+      </c>
+      <c r="F278" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>68.78</v>
+      </c>
+      <c r="G278" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="279" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B279" s="122">
+        <v>261</v>
+      </c>
+      <c r="C279" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>hombre</v>
+      </c>
+      <c r="D279" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>suma</v>
+      </c>
+      <c r="E279" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>61</v>
+      </c>
+      <c r="F279" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>46.74</v>
+      </c>
+      <c r="G279" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="280" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B280" s="129">
+        <v>262</v>
+      </c>
+      <c r="C280" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D280" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E280" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>42</v>
+      </c>
+      <c r="F280" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>56.19</v>
+      </c>
+      <c r="G280" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="281" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B281" s="122">
+        <v>263</v>
+      </c>
+      <c r="C281" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>hombre</v>
+      </c>
+      <c r="D281" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>operador</v>
+      </c>
+      <c r="E281" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>46</v>
+      </c>
+      <c r="F281" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>84.95</v>
+      </c>
+      <c r="G281" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="282" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B282" s="129">
+        <v>264</v>
+      </c>
+      <c r="C282" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>hombre</v>
+      </c>
+      <c r="D282" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E282" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>73</v>
+      </c>
+      <c r="F282" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>30.29</v>
+      </c>
+      <c r="G282" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="283" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B283" s="122">
+        <v>265</v>
+      </c>
+      <c r="C283" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>hombre</v>
+      </c>
+      <c r="D283" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>suma</v>
+      </c>
+      <c r="E283" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>50</v>
+      </c>
+      <c r="F283" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>48.79</v>
+      </c>
+      <c r="G283" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="284" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B284" s="129">
+        <v>266</v>
+      </c>
+      <c r="C284" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D284" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>operador</v>
+      </c>
+      <c r="E284" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>43</v>
+      </c>
+      <c r="F284" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>36.340000000000003</v>
+      </c>
+      <c r="G284" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="285" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B285" s="122">
+        <v>267</v>
+      </c>
+      <c r="C285" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D285" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E285" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>30</v>
+      </c>
+      <c r="F285" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>57.69</v>
+      </c>
+      <c r="G285" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="286" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B286" s="129">
+        <v>268</v>
+      </c>
+      <c r="C286" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D286" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E286" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>45</v>
+      </c>
+      <c r="F286" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>99.29</v>
+      </c>
+      <c r="G286" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B287" s="122">
+        <v>269</v>
+      </c>
+      <c r="C287" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>hombre</v>
+      </c>
+      <c r="D287" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E287" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>67</v>
+      </c>
+      <c r="F287" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>42.51</v>
+      </c>
+      <c r="G287" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="288" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B288" s="129">
+        <v>270</v>
+      </c>
+      <c r="C288" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D288" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E288" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>25</v>
+      </c>
+      <c r="F288" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>86.71</v>
+      </c>
+      <c r="G288" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="289" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B289" s="122">
+        <v>271</v>
+      </c>
+      <c r="C289" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D289" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>operador</v>
+      </c>
+      <c r="E289" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>68</v>
+      </c>
+      <c r="F289" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>80.02</v>
+      </c>
+      <c r="G289" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="290" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B290" s="129">
+        <v>272</v>
+      </c>
+      <c r="C290" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D290" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E290" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>64</v>
+      </c>
+      <c r="F290" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>31.22</v>
+      </c>
+      <c r="G290" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="291" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B291" s="122">
+        <v>273</v>
+      </c>
+      <c r="C291" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D291" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E291" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>13</v>
+      </c>
+      <c r="F291" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>88.15</v>
+      </c>
+      <c r="G291" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="292" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B292" s="129">
+        <v>274</v>
+      </c>
+      <c r="C292" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D292" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E292" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="F292" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>91.14</v>
+      </c>
+      <c r="G292" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="293" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B293" s="122">
+        <v>275</v>
+      </c>
+      <c r="C293" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D293" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>operador</v>
+      </c>
+      <c r="E293" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>16</v>
+      </c>
+      <c r="F293" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>69.459999999999994</v>
+      </c>
+      <c r="G293" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="294" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B294" s="129">
+        <v>276</v>
+      </c>
+      <c r="C294" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D294" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>suma</v>
+      </c>
+      <c r="E294" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>61</v>
+      </c>
+      <c r="F294" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>74.349999999999994</v>
+      </c>
+      <c r="G294" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="295" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B295" s="122">
+        <v>277</v>
+      </c>
+      <c r="C295" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D295" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>suma</v>
+      </c>
+      <c r="E295" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>62</v>
+      </c>
+      <c r="F295" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>44.97</v>
+      </c>
+      <c r="G295" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="296" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B296" s="129">
+        <v>278</v>
+      </c>
+      <c r="C296" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D296" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>suma</v>
+      </c>
+      <c r="E296" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>35</v>
+      </c>
+      <c r="F296" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>83.12</v>
+      </c>
+      <c r="G296" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="297" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B297" s="122">
+        <v>279</v>
+      </c>
+      <c r="C297" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D297" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>suma</v>
+      </c>
+      <c r="E297" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>73</v>
+      </c>
+      <c r="F297" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>99.66</v>
+      </c>
+      <c r="G297" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="298" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B298" s="129">
+        <v>280</v>
+      </c>
+      <c r="C298" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>hombre</v>
+      </c>
+      <c r="D298" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E298" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>54</v>
+      </c>
+      <c r="F298" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>60.54</v>
+      </c>
+      <c r="G298" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="299" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B299" s="122">
+        <v>281</v>
+      </c>
+      <c r="C299" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>hombre</v>
+      </c>
+      <c r="D299" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E299" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>66</v>
+      </c>
+      <c r="F299" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>98.63</v>
+      </c>
+      <c r="G299" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="300" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B300" s="129">
+        <v>282</v>
+      </c>
+      <c r="C300" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D300" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E300" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>53</v>
+      </c>
+      <c r="F300" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>76.89</v>
+      </c>
+      <c r="G300" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="301" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B301" s="122">
+        <v>283</v>
+      </c>
+      <c r="C301" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D301" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>operador</v>
+      </c>
+      <c r="E301" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>54</v>
+      </c>
+      <c r="F301" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>84.29</v>
+      </c>
+      <c r="G301" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="302" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B302" s="129">
+        <v>284</v>
+      </c>
+      <c r="C302" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D302" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E302" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>50</v>
+      </c>
+      <c r="F302" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>39.49</v>
+      </c>
+      <c r="G302" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="303" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B303" s="122">
+        <v>285</v>
+      </c>
+      <c r="C303" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D303" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E303" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>63</v>
+      </c>
+      <c r="F303" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>95.06</v>
+      </c>
+      <c r="G303" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="304" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B304" s="129">
+        <v>286</v>
+      </c>
+      <c r="C304" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>hombre</v>
+      </c>
+      <c r="D304" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E304" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>27</v>
+      </c>
+      <c r="F304" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>93.86</v>
+      </c>
+      <c r="G304" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="305" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B305" s="122">
+        <v>287</v>
+      </c>
+      <c r="C305" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>hombre</v>
+      </c>
+      <c r="D305" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E305" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>58</v>
+      </c>
+      <c r="F305" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>86.72</v>
+      </c>
+      <c r="G305" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="306" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B306" s="129">
+        <v>288</v>
+      </c>
+      <c r="C306" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>hombre</v>
+      </c>
+      <c r="D306" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>suma</v>
+      </c>
+      <c r="E306" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>38</v>
+      </c>
+      <c r="F306" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>36.340000000000003</v>
+      </c>
+      <c r="G306" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="307" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B307" s="122">
+        <v>289</v>
+      </c>
+      <c r="C307" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>hombre</v>
+      </c>
+      <c r="D307" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E307" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>65</v>
+      </c>
+      <c r="F307" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>26.39</v>
+      </c>
+      <c r="G307" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="308" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B308" s="129">
+        <v>290</v>
+      </c>
+      <c r="C308" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>hombre</v>
+      </c>
+      <c r="D308" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>operador</v>
+      </c>
+      <c r="E308" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="F308" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>56.38</v>
+      </c>
+      <c r="G308" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="309" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B309" s="122">
+        <v>291</v>
+      </c>
+      <c r="C309" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D309" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E309" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>31</v>
+      </c>
+      <c r="F309" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>79.239999999999995</v>
+      </c>
+      <c r="G309" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="310" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B310" s="129">
+        <v>292</v>
+      </c>
+      <c r="C310" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D310" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E310" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>23</v>
+      </c>
+      <c r="F310" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>97.96</v>
+      </c>
+      <c r="G310" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="311" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B311" s="122">
+        <v>293</v>
+      </c>
+      <c r="C311" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D311" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>operador</v>
+      </c>
+      <c r="E311" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>63</v>
+      </c>
+      <c r="F311" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>22.79</v>
+      </c>
+      <c r="G311" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="312" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B312" s="129">
+        <v>294</v>
+      </c>
+      <c r="C312" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>hombre</v>
+      </c>
+      <c r="D312" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>operador</v>
+      </c>
+      <c r="E312" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>57</v>
+      </c>
+      <c r="F312" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>26.93</v>
+      </c>
+      <c r="G312" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="313" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B313" s="122">
+        <v>295</v>
+      </c>
+      <c r="C313" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D313" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E313" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>58</v>
+      </c>
+      <c r="F313" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>77.790000000000006</v>
+      </c>
+      <c r="G313" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B314" s="129">
+        <v>296</v>
+      </c>
+      <c r="C314" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D314" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>suma</v>
+      </c>
+      <c r="E314" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>49</v>
+      </c>
+      <c r="F314" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>67.34</v>
+      </c>
+      <c r="G314" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="315" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B315" s="122">
+        <v>297</v>
+      </c>
+      <c r="C315" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D315" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E315" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>46</v>
+      </c>
+      <c r="F315" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>65.94</v>
+      </c>
+      <c r="G315" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="316" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B316" s="129">
+        <v>298</v>
+      </c>
+      <c r="C316" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D316" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E316" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>72</v>
+      </c>
+      <c r="F316" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>23.9</v>
+      </c>
+      <c r="G316" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="317" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B317" s="122">
+        <v>299</v>
+      </c>
+      <c r="C317" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>hombre</v>
+      </c>
+      <c r="D317" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E317" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>37</v>
+      </c>
+      <c r="F317" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>32.32</v>
+      </c>
+      <c r="G317" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="318" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B318" s="129">
+        <v>300</v>
+      </c>
+      <c r="C318" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>hombre</v>
+      </c>
+      <c r="D318" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E318" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>74</v>
+      </c>
+      <c r="F318" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>73.17</v>
+      </c>
+      <c r="G318" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="319" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B319" s="122">
+        <v>301</v>
+      </c>
+      <c r="C319" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>hombre</v>
+      </c>
+      <c r="D319" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E319" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>28</v>
+      </c>
+      <c r="F319" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>28.91</v>
+      </c>
+      <c r="G319" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="320" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B320" s="129">
+        <v>302</v>
+      </c>
+      <c r="C320" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D320" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>suma</v>
+      </c>
+      <c r="E320" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>33</v>
+      </c>
+      <c r="F320" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>87.29</v>
+      </c>
+      <c r="G320" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="321" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B321" s="122">
+        <v>303</v>
+      </c>
+      <c r="C321" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D321" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E321" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>23</v>
+      </c>
+      <c r="F321" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>86.92</v>
+      </c>
+      <c r="G321" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="322" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B322" s="129">
+        <v>304</v>
+      </c>
+      <c r="C322" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>hombre</v>
+      </c>
+      <c r="D322" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>suma</v>
+      </c>
+      <c r="E322" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>59</v>
+      </c>
+      <c r="F322" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>74.19</v>
+      </c>
+      <c r="G322" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="323" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B323" s="122">
+        <v>305</v>
+      </c>
+      <c r="C323" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D323" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>operador</v>
+      </c>
+      <c r="E323" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>59</v>
+      </c>
+      <c r="F323" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>52.18</v>
+      </c>
+      <c r="G323" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="324" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B324" s="129">
+        <v>306</v>
+      </c>
+      <c r="C324" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D324" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>suma</v>
+      </c>
+      <c r="E324" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>25</v>
+      </c>
+      <c r="F324" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>63.22</v>
+      </c>
+      <c r="G324" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="325" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B325" s="122">
+        <v>307</v>
+      </c>
+      <c r="C325" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>hombre</v>
+      </c>
+      <c r="D325" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E325" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>22</v>
+      </c>
+      <c r="F325" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>61.25</v>
+      </c>
+      <c r="G325" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="326" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B326" s="129">
+        <v>308</v>
+      </c>
+      <c r="C326" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D326" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E326" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>38</v>
+      </c>
+      <c r="F326" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>69.599999999999994</v>
+      </c>
+      <c r="G326" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="327" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B327" s="122">
+        <v>309</v>
+      </c>
+      <c r="C327" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D327" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E327" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>22</v>
+      </c>
+      <c r="F327" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>48.1</v>
+      </c>
+      <c r="G327" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="328" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B328" s="129">
+        <v>310</v>
+      </c>
+      <c r="C328" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D328" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E328" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>71</v>
+      </c>
+      <c r="F328" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>76.59</v>
+      </c>
+      <c r="G328" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="329" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B329" s="122">
+        <v>311</v>
+      </c>
+      <c r="C329" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>hombre</v>
+      </c>
+      <c r="D329" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E329" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>22</v>
+      </c>
+      <c r="F329" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>60.06</v>
+      </c>
+      <c r="G329" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="330" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B330" s="129">
+        <v>312</v>
+      </c>
+      <c r="C330" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D330" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>operador</v>
+      </c>
+      <c r="E330" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>27</v>
+      </c>
+      <c r="F330" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>63.69</v>
+      </c>
+      <c r="G330" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="331" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B331" s="122">
+        <v>313</v>
+      </c>
+      <c r="C331" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>hombre</v>
+      </c>
+      <c r="D331" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E331" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>45</v>
+      </c>
+      <c r="F331" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>40.130000000000003</v>
+      </c>
+      <c r="G331" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B332" s="129">
+        <v>314</v>
+      </c>
+      <c r="C332" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>hombre</v>
+      </c>
+      <c r="D332" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>suma</v>
+      </c>
+      <c r="E332" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>37</v>
+      </c>
+      <c r="F332" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>86.53</v>
+      </c>
+      <c r="G332" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B333" s="122">
+        <v>315</v>
+      </c>
+      <c r="C333" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D333" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E333" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>50</v>
+      </c>
+      <c r="F333" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>68.260000000000005</v>
+      </c>
+      <c r="G333" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="334" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B334" s="129">
+        <v>316</v>
+      </c>
+      <c r="C334" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>hombre</v>
+      </c>
+      <c r="D334" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E334" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>41</v>
+      </c>
+      <c r="F334" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>21.62</v>
+      </c>
+      <c r="G334" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="335" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B335" s="122">
+        <v>317</v>
+      </c>
+      <c r="C335" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>hombre</v>
+      </c>
+      <c r="D335" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E335" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>61</v>
+      </c>
+      <c r="F335" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>81.55</v>
+      </c>
+      <c r="G335" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="336" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B336" s="129">
+        <v>318</v>
+      </c>
+      <c r="C336" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D336" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E336" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>35</v>
+      </c>
+      <c r="F336" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>27.82</v>
+      </c>
+      <c r="G336" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="337" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B337" s="122">
+        <v>319</v>
+      </c>
+      <c r="C337" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>hombre</v>
+      </c>
+      <c r="D337" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>operador</v>
+      </c>
+      <c r="E337" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>52</v>
+      </c>
+      <c r="F337" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>27.97</v>
+      </c>
+      <c r="G337" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="338" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B338" s="129">
+        <v>320</v>
+      </c>
+      <c r="C338" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>hombre</v>
+      </c>
+      <c r="D338" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E338" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>34</v>
+      </c>
+      <c r="F338" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>47.34</v>
+      </c>
+      <c r="G338" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="339" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B339" s="122">
+        <v>321</v>
+      </c>
+      <c r="C339" s="122" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>mujer</v>
+      </c>
+      <c r="D339" s="122" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E339" s="122">
+        <f t="shared" ca="1" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="F339" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>75.98</v>
+      </c>
+      <c r="G339" s="129">
+        <f t="shared" ca="1" si="26"/>
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="340" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B340" s="129">
+        <v>322</v>
+      </c>
+      <c r="C340" s="122" t="str">
+        <f t="shared" ref="C340:C368" ca="1" si="28">IF(RANDBETWEEN(0,1)=0,"hombre","mujer")</f>
+        <v>hombre</v>
+      </c>
+      <c r="D340" s="122" t="str">
+        <f t="shared" ref="D340:D368" ca="1" si="29">INDEX($Q$19:$Q$24,RANDBETWEEN(1,COUNTA($Q$19:$Q$24)),1)</f>
+        <v>comerciante</v>
+      </c>
+      <c r="E340" s="122">
+        <f t="shared" ref="E340:E368" ca="1" si="30">RANDBETWEEN(10,75)</f>
+        <v>44</v>
+      </c>
+      <c r="F340" s="129">
+        <f t="shared" ca="1" si="27"/>
+        <v>22.92</v>
+      </c>
+      <c r="G340" s="129">
+        <f t="shared" ref="G340:G368" ca="1" si="31">RANDBETWEEN(1*100,2*100)/100</f>
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="341" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B341" s="122">
+        <v>323</v>
+      </c>
+      <c r="C341" s="122" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>hombre</v>
+      </c>
+      <c r="D341" s="122" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>operador</v>
+      </c>
+      <c r="E341" s="122">
+        <f t="shared" ca="1" si="30"/>
+        <v>32</v>
+      </c>
+      <c r="F341" s="129">
+        <f t="shared" ref="F341:F368" ca="1" si="32">RANDBETWEEN(20*100,100*100)/100</f>
+        <v>85.5</v>
+      </c>
+      <c r="G341" s="129">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="342" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B342" s="129">
+        <v>324</v>
+      </c>
+      <c r="C342" s="122" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>mujer</v>
+      </c>
+      <c r="D342" s="122" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E342" s="122">
+        <f t="shared" ca="1" si="30"/>
+        <v>20</v>
+      </c>
+      <c r="F342" s="129">
+        <f t="shared" ca="1" si="32"/>
+        <v>82.13</v>
+      </c>
+      <c r="G342" s="129">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="343" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B343" s="122">
+        <v>325</v>
+      </c>
+      <c r="C343" s="122" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>mujer</v>
+      </c>
+      <c r="D343" s="122" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E343" s="122">
+        <f t="shared" ca="1" si="30"/>
+        <v>42</v>
+      </c>
+      <c r="F343" s="129">
+        <f t="shared" ca="1" si="32"/>
+        <v>64.81</v>
+      </c>
+      <c r="G343" s="129">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="344" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B344" s="129">
+        <v>326</v>
+      </c>
+      <c r="C344" s="122" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>mujer</v>
+      </c>
+      <c r="D344" s="122" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E344" s="122">
+        <f t="shared" ca="1" si="30"/>
+        <v>20</v>
+      </c>
+      <c r="F344" s="129">
+        <f t="shared" ca="1" si="32"/>
+        <v>69.89</v>
+      </c>
+      <c r="G344" s="129">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="345" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B345" s="122">
+        <v>327</v>
+      </c>
+      <c r="C345" s="122" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>hombre</v>
+      </c>
+      <c r="D345" s="122" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E345" s="122">
+        <f t="shared" ca="1" si="30"/>
+        <v>17</v>
+      </c>
+      <c r="F345" s="129">
+        <f t="shared" ca="1" si="32"/>
+        <v>83.1</v>
+      </c>
+      <c r="G345" s="129">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="346" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B346" s="129">
+        <v>328</v>
+      </c>
+      <c r="C346" s="122" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>hombre</v>
+      </c>
+      <c r="D346" s="122" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E346" s="122">
+        <f t="shared" ca="1" si="30"/>
+        <v>10</v>
+      </c>
+      <c r="F346" s="129">
+        <f t="shared" ca="1" si="32"/>
+        <v>35.020000000000003</v>
+      </c>
+      <c r="G346" s="129">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="347" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B347" s="122">
+        <v>329</v>
+      </c>
+      <c r="C347" s="122" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>mujer</v>
+      </c>
+      <c r="D347" s="122" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>operador</v>
+      </c>
+      <c r="E347" s="122">
+        <f t="shared" ca="1" si="30"/>
+        <v>25</v>
+      </c>
+      <c r="F347" s="129">
+        <f t="shared" ca="1" si="32"/>
+        <v>82.67</v>
+      </c>
+      <c r="G347" s="129">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="348" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B348" s="129">
+        <v>330</v>
+      </c>
+      <c r="C348" s="122" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>mujer</v>
+      </c>
+      <c r="D348" s="122" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E348" s="122">
+        <f t="shared" ca="1" si="30"/>
+        <v>38</v>
+      </c>
+      <c r="F348" s="129">
+        <f t="shared" ca="1" si="32"/>
+        <v>55.97</v>
+      </c>
+      <c r="G348" s="129">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="349" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B349" s="122">
+        <v>331</v>
+      </c>
+      <c r="C349" s="122" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>hombre</v>
+      </c>
+      <c r="D349" s="122" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>suma</v>
+      </c>
+      <c r="E349" s="122">
+        <f t="shared" ca="1" si="30"/>
+        <v>11</v>
+      </c>
+      <c r="F349" s="129">
+        <f t="shared" ca="1" si="32"/>
+        <v>87.19</v>
+      </c>
+      <c r="G349" s="129">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="350" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B350" s="129">
+        <v>332</v>
+      </c>
+      <c r="C350" s="122" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>mujer</v>
+      </c>
+      <c r="D350" s="122" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>operador</v>
+      </c>
+      <c r="E350" s="122">
+        <f t="shared" ca="1" si="30"/>
+        <v>59</v>
+      </c>
+      <c r="F350" s="129">
+        <f t="shared" ca="1" si="32"/>
+        <v>93.43</v>
+      </c>
+      <c r="G350" s="129">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="351" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B351" s="122">
+        <v>333</v>
+      </c>
+      <c r="C351" s="122" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>mujer</v>
+      </c>
+      <c r="D351" s="122" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>operador</v>
+      </c>
+      <c r="E351" s="122">
+        <f t="shared" ca="1" si="30"/>
+        <v>47</v>
+      </c>
+      <c r="F351" s="129">
+        <f t="shared" ca="1" si="32"/>
+        <v>79.17</v>
+      </c>
+      <c r="G351" s="129">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="352" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B352" s="129">
+        <v>334</v>
+      </c>
+      <c r="C352" s="122" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>mujer</v>
+      </c>
+      <c r="D352" s="122" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>operador</v>
+      </c>
+      <c r="E352" s="122">
+        <f t="shared" ca="1" si="30"/>
+        <v>27</v>
+      </c>
+      <c r="F352" s="129">
+        <f t="shared" ca="1" si="32"/>
+        <v>46.4</v>
+      </c>
+      <c r="G352" s="129">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="353" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B353" s="122">
+        <v>335</v>
+      </c>
+      <c r="C353" s="122" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>mujer</v>
+      </c>
+      <c r="D353" s="122" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E353" s="122">
+        <f t="shared" ca="1" si="30"/>
+        <v>30</v>
+      </c>
+      <c r="F353" s="129">
+        <f t="shared" ca="1" si="32"/>
+        <v>94.35</v>
+      </c>
+      <c r="G353" s="129">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="354" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B354" s="129">
+        <v>336</v>
+      </c>
+      <c r="C354" s="122" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>mujer</v>
+      </c>
+      <c r="D354" s="122" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E354" s="122">
+        <f t="shared" ca="1" si="30"/>
+        <v>60</v>
+      </c>
+      <c r="F354" s="129">
+        <f t="shared" ca="1" si="32"/>
+        <v>21.89</v>
+      </c>
+      <c r="G354" s="129">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="355" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B355" s="122">
+        <v>337</v>
+      </c>
+      <c r="C355" s="122" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>mujer</v>
+      </c>
+      <c r="D355" s="122" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E355" s="122">
+        <f t="shared" ca="1" si="30"/>
+        <v>46</v>
+      </c>
+      <c r="F355" s="129">
+        <f t="shared" ca="1" si="32"/>
+        <v>89.42</v>
+      </c>
+      <c r="G355" s="129">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="356" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B356" s="129">
+        <v>338</v>
+      </c>
+      <c r="C356" s="122" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>hombre</v>
+      </c>
+      <c r="D356" s="122" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E356" s="122">
+        <f t="shared" ca="1" si="30"/>
+        <v>53</v>
+      </c>
+      <c r="F356" s="129">
+        <f t="shared" ca="1" si="32"/>
+        <v>91.87</v>
+      </c>
+      <c r="G356" s="129">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="357" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B357" s="122">
+        <v>339</v>
+      </c>
+      <c r="C357" s="122" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>hombre</v>
+      </c>
+      <c r="D357" s="122" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>operador</v>
+      </c>
+      <c r="E357" s="122">
+        <f t="shared" ca="1" si="30"/>
+        <v>20</v>
+      </c>
+      <c r="F357" s="129">
+        <f t="shared" ca="1" si="32"/>
+        <v>99.72</v>
+      </c>
+      <c r="G357" s="129">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="358" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B358" s="129">
+        <v>340</v>
+      </c>
+      <c r="C358" s="122" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>mujer</v>
+      </c>
+      <c r="D358" s="122" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E358" s="122">
+        <f t="shared" ca="1" si="30"/>
+        <v>23</v>
+      </c>
+      <c r="F358" s="129">
+        <f t="shared" ca="1" si="32"/>
+        <v>73.069999999999993</v>
+      </c>
+      <c r="G358" s="129">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="359" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B359" s="122">
+        <v>341</v>
+      </c>
+      <c r="C359" s="122" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>hombre</v>
+      </c>
+      <c r="D359" s="122" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>suma</v>
+      </c>
+      <c r="E359" s="122">
+        <f t="shared" ca="1" si="30"/>
+        <v>17</v>
+      </c>
+      <c r="F359" s="129">
+        <f t="shared" ca="1" si="32"/>
+        <v>60.77</v>
+      </c>
+      <c r="G359" s="129">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="360" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B360" s="129">
+        <v>342</v>
+      </c>
+      <c r="C360" s="122" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>mujer</v>
+      </c>
+      <c r="D360" s="122" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E360" s="122">
+        <f t="shared" ca="1" si="30"/>
+        <v>53</v>
+      </c>
+      <c r="F360" s="129">
+        <f t="shared" ca="1" si="32"/>
+        <v>42.72</v>
+      </c>
+      <c r="G360" s="129">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="361" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B361" s="122">
+        <v>343</v>
+      </c>
+      <c r="C361" s="122" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>hombre</v>
+      </c>
+      <c r="D361" s="122" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E361" s="122">
+        <f t="shared" ca="1" si="30"/>
+        <v>28</v>
+      </c>
+      <c r="F361" s="129">
+        <f t="shared" ca="1" si="32"/>
+        <v>96.4</v>
+      </c>
+      <c r="G361" s="129">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="362" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B362" s="129">
+        <v>344</v>
+      </c>
+      <c r="C362" s="122" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>mujer</v>
+      </c>
+      <c r="D362" s="122" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>funcionario</v>
+      </c>
+      <c r="E362" s="122">
+        <f t="shared" ca="1" si="30"/>
+        <v>41</v>
+      </c>
+      <c r="F362" s="129">
+        <f t="shared" ca="1" si="32"/>
+        <v>91.02</v>
+      </c>
+      <c r="G362" s="129">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="363" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B363" s="122">
+        <v>345</v>
+      </c>
+      <c r="C363" s="122" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>mujer</v>
+      </c>
+      <c r="D363" s="122" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>operador</v>
+      </c>
+      <c r="E363" s="122">
+        <f t="shared" ca="1" si="30"/>
+        <v>55</v>
+      </c>
+      <c r="F363" s="129">
+        <f t="shared" ca="1" si="32"/>
+        <v>87.78</v>
+      </c>
+      <c r="G363" s="129">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="364" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B364" s="129">
+        <v>346</v>
+      </c>
+      <c r="C364" s="122" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>mujer</v>
+      </c>
+      <c r="D364" s="122" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>comerciante</v>
+      </c>
+      <c r="E364" s="122">
+        <f t="shared" ca="1" si="30"/>
+        <v>39</v>
+      </c>
+      <c r="F364" s="129">
+        <f t="shared" ca="1" si="32"/>
+        <v>82.44</v>
+      </c>
+      <c r="G364" s="129">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="365" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B365" s="122">
+        <v>347</v>
+      </c>
+      <c r="C365" s="122" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>hombre</v>
+      </c>
+      <c r="D365" s="122" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E365" s="122">
+        <f t="shared" ca="1" si="30"/>
+        <v>68</v>
+      </c>
+      <c r="F365" s="129">
+        <f t="shared" ca="1" si="32"/>
+        <v>40.729999999999997</v>
+      </c>
+      <c r="G365" s="129">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="366" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B366" s="129">
+        <v>348</v>
+      </c>
+      <c r="C366" s="122" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>mujer</v>
+      </c>
+      <c r="D366" s="122" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>suma</v>
+      </c>
+      <c r="E366" s="122">
+        <f t="shared" ca="1" si="30"/>
+        <v>41</v>
+      </c>
+      <c r="F366" s="129">
+        <f t="shared" ca="1" si="32"/>
+        <v>54.38</v>
+      </c>
+      <c r="G366" s="129">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="367" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B367" s="122">
+        <v>349</v>
+      </c>
+      <c r="C367" s="122" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>mujer</v>
+      </c>
+      <c r="D367" s="122" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>profesionista</v>
+      </c>
+      <c r="E367" s="122">
+        <f t="shared" ca="1" si="30"/>
+        <v>46</v>
+      </c>
+      <c r="F367" s="129">
+        <f t="shared" ca="1" si="32"/>
+        <v>52.59</v>
+      </c>
+      <c r="G367" s="129">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="368" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B368" s="129">
+        <v>350</v>
+      </c>
+      <c r="C368" s="122" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>mujer</v>
+      </c>
+      <c r="D368" s="122" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>trabajador</v>
+      </c>
+      <c r="E368" s="122">
+        <f t="shared" ca="1" si="30"/>
+        <v>50</v>
+      </c>
+      <c r="F368" s="129">
+        <f t="shared" ca="1" si="32"/>
+        <v>51.23</v>
+      </c>
+      <c r="G368" s="129">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.1100000000000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11629,14 +20241,14 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="148" t="s">
+      <c r="K21" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="L21" s="149"/>
-      <c r="M21" s="149"/>
-      <c r="N21" s="149"/>
-      <c r="O21" s="149"/>
-      <c r="P21" s="150"/>
+      <c r="L21" s="147"/>
+      <c r="M21" s="147"/>
+      <c r="N21" s="147"/>
+      <c r="O21" s="147"/>
+      <c r="P21" s="148"/>
     </row>
     <row r="22" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -12525,27 +21137,27 @@
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="54"/>
-      <c r="B15" s="151" t="s">
+      <c r="B15" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="152"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="153"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="151"/>
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
       <c r="I15" s="54"/>
       <c r="J15" s="54"/>
-      <c r="K15" s="151" t="s">
+      <c r="K15" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="L15" s="152"/>
-      <c r="M15" s="153"/>
+      <c r="L15" s="150"/>
+      <c r="M15" s="151"/>
       <c r="N15" s="54"/>
-      <c r="O15" s="151" t="s">
+      <c r="O15" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="P15" s="153"/>
+      <c r="P15" s="151"/>
     </row>
     <row r="16" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="54"/>
@@ -12927,11 +21539,11 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="54"/>
-      <c r="B30" s="151" t="s">
+      <c r="B30" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="152"/>
-      <c r="D30" s="153"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="151"/>
       <c r="F30" s="54"/>
       <c r="G30" s="54"/>
       <c r="H30" s="54"/>
@@ -13612,24 +22224,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Lista_x0020_de_x0020_Categor_x00ed_as xmlns="3d413473-fcf3-4de0-89d8-0961202c6d74">111</Lista_x0020_de_x0020_Categor_x00ed_as>
-    <Categor_x00ed_a xmlns="0802d32b-1505-49d7-8ca2-98aeeeeccb41">Parte2 Libros Excel</Categor_x00ed_a>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B0DACC4B2AA1A64FB31270A01C27BDD6" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="078dad5d135594997daf55359efd4a80">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0802d32b-1505-49d7-8ca2-98aeeeeccb41" xmlns:ns3="3d413473-fcf3-4de0-89d8-0961202c6d74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="50b02bc4797b648dd5de7c3e34f84c04" ns2:_="" ns3:_="">
     <xsd:import namespace="0802d32b-1505-49d7-8ca2-98aeeeeccb41"/>
@@ -13768,10 +22362,39 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Lista_x0020_de_x0020_Categor_x00ed_as xmlns="3d413473-fcf3-4de0-89d8-0961202c6d74">111</Lista_x0020_de_x0020_Categor_x00ed_as>
+    <Categor_x00ed_a xmlns="0802d32b-1505-49d7-8ca2-98aeeeeccb41">Parte2 Libros Excel</Categor_x00ed_a>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{202AF50B-6C1B-47F5-B54D-DDA10863B989}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{054CB9B5-EF2A-4FF4-B6F9-3D27BD1684F7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0802d32b-1505-49d7-8ca2-98aeeeeccb41"/>
+    <ds:schemaRef ds:uri="3d413473-fcf3-4de0-89d8-0961202c6d74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13794,20 +22417,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{054CB9B5-EF2A-4FF4-B6F9-3D27BD1684F7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{202AF50B-6C1B-47F5-B54D-DDA10863B989}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0802d32b-1505-49d7-8ca2-98aeeeeccb41"/>
-    <ds:schemaRef ds:uri="3d413473-fcf3-4de0-89d8-0961202c6d74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>